--- a/ProDS1/output_labelling/dataset_grid_metode_2.xlsx
+++ b/ProDS1/output_labelling/dataset_grid_metode_2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K565"/>
+  <dimension ref="A1:M565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,16 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>EVI</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>jenis_lahan</t>
         </is>
       </c>
@@ -521,7 +531,13 @@
       <c r="J2" t="n">
         <v>3089.533333333333</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" t="n">
+        <v>0.1343749564441719</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6597188958381811</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -558,7 +574,13 @@
       <c r="J3" t="n">
         <v>3358.1875</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" t="n">
+        <v>0.108236092095512</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5933919127368885</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -595,7 +617,13 @@
       <c r="J4" t="n">
         <v>3430.894736842105</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" t="n">
+        <v>0.1136769788868795</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6357195006642656</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -632,7 +660,13 @@
       <c r="J5" t="n">
         <v>2422.78947368421</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" t="n">
+        <v>0.1248193790162471</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.510348552908399</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -669,7 +703,13 @@
       <c r="J6" t="n">
         <v>2286.571428571428</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" t="n">
+        <v>0.0999831961014955</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.584300777505592</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -706,7 +746,13 @@
       <c r="J7" t="n">
         <v>2492.260869565217</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" t="n">
+        <v>0.1287800356928052</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.416194999240995</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -743,7 +789,13 @@
       <c r="J8" t="n">
         <v>2149.75</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" t="n">
+        <v>0.08110578021475896</v>
+      </c>
+      <c r="L8" t="n">
+        <v>51.98744769874477</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -780,7 +832,13 @@
       <c r="J9" t="n">
         <v>2718.6</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="n">
+        <v>0.1229458831626947</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.423732190893695</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -817,7 +875,13 @@
       <c r="J10" t="n">
         <v>2925.666666666667</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" t="n">
+        <v>0.1100191260850375</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.124511278195486</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -854,7 +918,13 @@
       <c r="J11" t="n">
         <v>3183.363636363636</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" t="n">
+        <v>0.1099612864800476</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5305030260582229</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -891,7 +961,13 @@
       <c r="J12" t="n">
         <v>3043.875</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" t="n">
+        <v>0.1092101511263188</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.8283523397561935</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -928,7 +1004,13 @@
       <c r="J13" t="n">
         <v>3207.363636363636</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K13" t="n">
+        <v>0.09324009324009316</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.7386888273314857</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -965,7 +1047,13 @@
       <c r="J14" t="n">
         <v>4514.733333333334</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="K14" t="n">
+        <v>0.08923470895301877</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.6024136440706134</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1002,7 +1090,13 @@
       <c r="J15" t="n">
         <v>3603.222222222222</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K15" t="n">
+        <v>0.1341017005877801</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9364045337695709</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1039,7 +1133,13 @@
       <c r="J16" t="n">
         <v>7212.222222222223</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" t="n">
+        <v>0.06931878288466353</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5479512345407324</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1076,7 +1176,13 @@
       <c r="J17" t="n">
         <v>3645.733333333333</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K17" t="n">
+        <v>0.08767392412618288</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.9027937824895677</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1113,7 +1219,13 @@
       <c r="J18" t="n">
         <v>3250.692307692308</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K18" t="n">
+        <v>0.0770787816476031</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.489877033908828</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1150,7 +1262,13 @@
       <c r="J19" t="n">
         <v>3823.846153846154</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" t="n">
+        <v>0.09112283518752147</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.35032929679201</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1187,7 +1305,13 @@
       <c r="J20" t="n">
         <v>3958.5</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" t="n">
+        <v>0.1317598198356292</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.114878241932289</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1224,7 +1348,13 @@
       <c r="J21" t="n">
         <v>4826.846153846154</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" t="n">
+        <v>0.1355531381544719</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.26186020913594</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1261,7 +1391,13 @@
       <c r="J22" t="n">
         <v>3151.785714285714</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K22" t="n">
+        <v>0.1589256040752949</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.7473355195736843</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1298,7 +1434,13 @@
       <c r="J23" t="n">
         <v>3210.857142857143</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K23" t="n">
+        <v>0.1462645647703907</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.8258769621350499</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1335,7 +1477,13 @@
       <c r="J24" t="n">
         <v>3242.3</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="K24" t="n">
+        <v>0.1401598230122252</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.7283304592574976</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1372,7 +1520,13 @@
       <c r="J25" t="n">
         <v>3096.5</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K25" t="n">
+        <v>0.1532184950135993</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.8815616077311663</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1409,7 +1563,13 @@
       <c r="J26" t="n">
         <v>3519.166666666667</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K26" t="n">
+        <v>0.1020125553914328</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.5417728966464013</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1446,7 +1606,13 @@
       <c r="J27" t="n">
         <v>3254</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K27" t="n">
+        <v>0.1531986531986532</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.8624684077506318</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1483,7 +1649,13 @@
       <c r="J28" t="n">
         <v>3844.25</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K28" t="n">
+        <v>0.1126787984287498</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.067831560668548</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1520,7 +1692,13 @@
       <c r="J29" t="n">
         <v>3531.727272727273</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K29" t="n">
+        <v>0.07183657490613378</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.9073541310797448</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1557,7 +1735,13 @@
       <c r="J30" t="n">
         <v>3009</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K30" t="n">
+        <v>0.1236638264910922</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.8493150684931512</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1594,7 +1778,13 @@
       <c r="J31" t="n">
         <v>3650.666666666667</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K31" t="n">
+        <v>0.1236475796269957</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.9269198514436331</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1631,7 +1821,13 @@
       <c r="J32" t="n">
         <v>3636.923076923077</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="n">
+        <v>0.1100873620045506</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.8524754198207586</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1668,7 +1864,13 @@
       <c r="J33" t="n">
         <v>3464.0625</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K33" t="n">
+        <v>0.1413355182302335</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9538366747239205</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1705,7 +1907,13 @@
       <c r="J34" t="n">
         <v>3041.25</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="K34" t="n">
+        <v>0.2027958817417587</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.591431324586762</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1742,7 +1950,13 @@
       <c r="J35" t="n">
         <v>3332.875</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K35" t="n">
+        <v>0.09904507843577001</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.074254256817309</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1779,7 +1993,13 @@
       <c r="J36" t="n">
         <v>6164.416666666667</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="K36" t="n">
+        <v>0.04679897965532256</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.2399545738748739</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1816,7 +2036,13 @@
       <c r="J37" t="n">
         <v>6626.857142857143</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K37" t="n">
+        <v>0.03922756837555039</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.1930954937756036</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1853,7 +2079,13 @@
       <c r="J38" t="n">
         <v>4738</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K38" t="n">
+        <v>0.09077117572692789</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.5529882932840405</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1890,7 +2122,13 @@
       <c r="J39" t="n">
         <v>5947.1875</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="K39" t="n">
+        <v>0.05761101788939932</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.3217596148922006</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1927,7 +2165,13 @@
       <c r="J40" t="n">
         <v>3611.666666666667</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="K40" t="n">
+        <v>0.1169428061773828</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.935755985906437</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -1964,7 +2208,13 @@
       <c r="J41" t="n">
         <v>3719.071428571428</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K41" t="n">
+        <v>0.06546936880739265</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.6999286578367813</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2001,7 +2251,13 @@
       <c r="J42" t="n">
         <v>3895.941176470588</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="K42" t="n">
+        <v>0.1381847914963205</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.048570564933103</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2038,7 +2294,13 @@
       <c r="J43" t="n">
         <v>3307</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="K43" t="n">
+        <v>0.1801496077358146</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.579991679201203</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2075,7 +2337,13 @@
       <c r="J44" t="n">
         <v>3301.111111111111</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="K44" t="n">
+        <v>0.08350839243744673</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.5935661275538866</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2112,7 +2380,13 @@
       <c r="J45" t="n">
         <v>3183.818181818182</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="K45" t="n">
+        <v>0.147297506848843</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.7452706825908814</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2149,7 +2423,13 @@
       <c r="J46" t="n">
         <v>3697.769230769231</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="K46" t="n">
+        <v>0.1801299776820179</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.714633103521991</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2186,7 +2466,13 @@
       <c r="J47" t="n">
         <v>4033.235294117647</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="K47" t="n">
+        <v>0.04816777041942601</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.5362628720292935</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2223,7 +2509,13 @@
       <c r="J48" t="n">
         <v>4066</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K48" t="n">
+        <v>0.08493798955613574</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.7359230850800629</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2260,7 +2552,13 @@
       <c r="J49" t="n">
         <v>5174.23076923077</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K49" t="n">
+        <v>0.04535710392771927</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.2766900628001474</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2297,7 +2595,13 @@
       <c r="J50" t="n">
         <v>3162.818181818182</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K50" t="n">
+        <v>0.1572346872646384</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.7781322053291267</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2334,7 +2638,13 @@
       <c r="J51" t="n">
         <v>3186.333333333333</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="K51" t="n">
+        <v>0.1645864238579978</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.9216952891129666</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2371,7 +2681,13 @@
       <c r="J52" t="n">
         <v>2535.333333333333</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="K52" t="n">
+        <v>0.06234089494823782</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.4721305856647107</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2408,7 +2724,13 @@
       <c r="J53" t="n">
         <v>4002.090909090909</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="K53" t="n">
+        <v>0.03894176054363422</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.4438804286520021</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2445,7 +2767,13 @@
       <c r="J54" t="n">
         <v>4309.75</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="K54" t="n">
+        <v>0.008752568688636855</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.09025554090538052</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2482,7 +2810,13 @@
       <c r="J55" t="n">
         <v>7396</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="K55" t="n">
+        <v>-0.005673482829855366</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.1113101706364349</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2519,7 +2853,13 @@
       <c r="J56" t="n">
         <v>6723.833333333333</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K56" t="n">
+        <v>0.007848485137467659</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.2560512724783761</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2556,7 +2896,13 @@
       <c r="J57" t="n">
         <v>6731.222222222223</v>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="K57" t="n">
+        <v>-0.001361205639280495</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.1048296518157973</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2593,7 +2939,13 @@
       <c r="J58" t="n">
         <v>4853.75</v>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K58" t="n">
+        <v>0.00949486541681588</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.2692096597145993</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2630,7 +2982,13 @@
       <c r="J59" t="n">
         <v>4462.8</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="K59" t="n">
+        <v>0.01438076840523719</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.1176608324064864</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2667,7 +3025,13 @@
       <c r="J60" t="n">
         <v>6504.25</v>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="K60" t="n">
+        <v>0.04656542952688995</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.4532647441781036</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2704,7 +3068,13 @@
       <c r="J61" t="n">
         <v>3973.875</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K61" t="n">
+        <v>0.04781262098335269</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3234624891551671</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2741,7 +3111,13 @@
       <c r="J62" t="n">
         <v>3927.75</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="K62" t="n">
+        <v>0.06133350920002639</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.4271639528741701</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2778,7 +3154,13 @@
       <c r="J63" t="n">
         <v>3412.6</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="K63" t="n">
+        <v>0.1328349210177258</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.7049788813515939</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2815,7 +3197,13 @@
       <c r="J64" t="n">
         <v>3513.133333333333</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="K64" t="n">
+        <v>0.1436420534626502</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.6589300195059943</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2852,7 +3240,13 @@
       <c r="J65" t="n">
         <v>3060.3</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="K65" t="n">
+        <v>0.1755442157368652</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.8326383349046338</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2889,7 +3283,13 @@
       <c r="J66" t="n">
         <v>3368.1875</v>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="K66" t="n">
+        <v>0.1275590551181102</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.5499038234053715</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2926,7 +3326,13 @@
       <c r="J67" t="n">
         <v>5218.428571428572</v>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="K67" t="n">
+        <v>0.05419343614469809</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.4055612387240776</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -2963,7 +3369,13 @@
       <c r="J68" t="n">
         <v>3561.166666666667</v>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="K68" t="n">
+        <v>0.02813151368539559</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.2377951540717109</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3000,7 +3412,13 @@
       <c r="J69" t="n">
         <v>3455.235294117647</v>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="K69" t="n">
+        <v>0.09259560265704406</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.6820177188921693</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3037,7 +3455,13 @@
       <c r="J70" t="n">
         <v>3486.52380952381</v>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="K70" t="n">
+        <v>0.09186131582234434</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.4303052592865028</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3074,7 +3498,13 @@
       <c r="J71" t="n">
         <v>3446.727272727273</v>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="K71" t="n">
+        <v>0.1129556886653276</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.3787969100185972</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3111,7 +3541,13 @@
       <c r="J72" t="n">
         <v>3650.454545454545</v>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="K72" t="n">
+        <v>0.08038976857490865</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.3075091243237648</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3148,7 +3584,13 @@
       <c r="J73" t="n">
         <v>4861.153846153846</v>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="K73" t="n">
+        <v>0.02721309833767271</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.2002874410377355</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3185,7 +3627,13 @@
       <c r="J74" t="n">
         <v>3598.222222222222</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="K74" t="n">
+        <v>0.06107656506313664</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.4627702624580879</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3222,7 +3670,13 @@
       <c r="J75" t="n">
         <v>3918.928571428572</v>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="K75" t="n">
+        <v>0.0752760217904274</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.6366727442960638</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3259,7 +3713,13 @@
       <c r="J76" t="n">
         <v>3194.266666666667</v>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="K76" t="n">
+        <v>0.1467535602220613</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.4559316102584611</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3296,7 +3756,13 @@
       <c r="J77" t="n">
         <v>3477.75</v>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="K77" t="n">
+        <v>0.1130450941526264</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.4030877626972648</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3333,7 +3799,13 @@
       <c r="J78" t="n">
         <v>3319</v>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="K78" t="n">
+        <v>0.1508593782512797</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.5124061177756623</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3370,7 +3842,13 @@
       <c r="J79" t="n">
         <v>4842.571428571428</v>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="K79" t="n">
+        <v>0.02308704383352951</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.1496194442449917</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3407,7 +3885,13 @@
       <c r="J80" t="n">
         <v>4747.222222222223</v>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="K80" t="n">
+        <v>0.01382202205311387</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.1050240434256723</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3444,7 +3928,13 @@
       <c r="J81" t="n">
         <v>3530.666666666667</v>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="K81" t="n">
+        <v>0.02579365079365077</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.2208045072289652</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3481,7 +3971,13 @@
       <c r="J82" t="n">
         <v>3221.133333333333</v>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="K82" t="n">
+        <v>0.1089812241577984</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.4347285312567598</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3518,7 +4014,13 @@
       <c r="J83" t="n">
         <v>3174.894736842105</v>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="K83" t="n">
+        <v>0.09822640868974883</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.4356335033213525</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3555,7 +4057,13 @@
       <c r="J84" t="n">
         <v>3141.214285714286</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="K84" t="n">
+        <v>0.1578289348517381</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.7488555032561736</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3592,7 +4100,13 @@
       <c r="J85" t="n">
         <v>3399.153846153846</v>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="K85" t="n">
+        <v>0.08232137568165587</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.5667506297229228</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3629,7 +4143,13 @@
       <c r="J86" t="n">
         <v>3245</v>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="K86" t="n">
+        <v>0.1560766989378701</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.7170772785179107</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3666,7 +4186,13 @@
       <c r="J87" t="n">
         <v>3404.888888888889</v>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="K87" t="n">
+        <v>0.1497679969546385</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.555017538508464</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3703,7 +4229,13 @@
       <c r="J88" t="n">
         <v>3472.307692307692</v>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K88" t="n">
+        <v>0.1088071062365222</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.3811901497943701</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3740,7 +4272,13 @@
       <c r="J89" t="n">
         <v>3826.833333333333</v>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K89" t="n">
+        <v>0.09073795180722892</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.3154553486697863</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3777,7 +4315,13 @@
       <c r="J90" t="n">
         <v>3298.333333333333</v>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K90" t="n">
+        <v>0.1102493554886372</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.4754652814111673</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3814,7 +4358,13 @@
       <c r="J91" t="n">
         <v>3600.5</v>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="K91" t="n">
+        <v>0.09936231006490431</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.4218755021370953</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3851,7 +4401,13 @@
       <c r="J92" t="n">
         <v>3531.5</v>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K92" t="n">
+        <v>0.1123729580710201</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.4301419631231888</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3888,7 +4444,13 @@
       <c r="J93" t="n">
         <v>3552.25</v>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="K93" t="n">
+        <v>0.1190413114958471</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.3688342539302408</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3925,7 +4487,13 @@
       <c r="J94" t="n">
         <v>3570.8125</v>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="K94" t="n">
+        <v>0.1216341900505864</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.4197786024081294</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3962,7 +4530,13 @@
       <c r="J95" t="n">
         <v>3552.090909090909</v>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="K95" t="n">
+        <v>0.1306091666380995</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.4302362346989476</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -3999,7 +4573,13 @@
       <c r="J96" t="n">
         <v>3870.2</v>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="K96" t="n">
+        <v>0.1091662828189775</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.4197147411009853</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4036,7 +4616,13 @@
       <c r="J97" t="n">
         <v>3640.9</v>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="K97" t="n">
+        <v>0.131692558724547</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.5753921102661592</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4073,7 +4659,13 @@
       <c r="J98" t="n">
         <v>3397.875</v>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="K98" t="n">
+        <v>0.1439030362389814</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.5218804390295884</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4110,7 +4702,13 @@
       <c r="J99" t="n">
         <v>2970.5</v>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="K99" t="n">
+        <v>0.1910637365846536</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.8797032920242924</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -4147,7 +4745,13 @@
       <c r="J100" t="n">
         <v>1945.5</v>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="K100" t="n">
+        <v>0.3904163696267894</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.757696016615971</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4184,7 +4788,13 @@
       <c r="J101" t="n">
         <v>1933.111111111111</v>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="K101" t="n">
+        <v>0.3829030158385767</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.756012429234242</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4221,7 +4831,13 @@
       <c r="J102" t="n">
         <v>2666.2</v>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="K102" t="n">
+        <v>0.4028866891555605</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2.23273061599755</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4258,7 +4874,13 @@
       <c r="J103" t="n">
         <v>2401</v>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="K103" t="n">
+        <v>0.4658559167229687</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2.697998637740387</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4295,7 +4917,13 @@
       <c r="J104" t="n">
         <v>2040.95652173913</v>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="K104" t="n">
+        <v>0.4631603423316656</v>
+      </c>
+      <c r="L104" t="n">
+        <v>4.063343116223367</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4332,7 +4960,13 @@
       <c r="J105" t="n">
         <v>1877.151515151515</v>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="K105" t="n">
+        <v>0.4786646331130318</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3.4041989056813</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4369,7 +5003,13 @@
       <c r="J106" t="n">
         <v>1780.428571428571</v>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="K106" t="n">
+        <v>0.5036947749069755</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3.638394124661659</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4406,7 +5046,13 @@
       <c r="J107" t="n">
         <v>2061.5</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="K107" t="n">
+        <v>0.3928815248076462</v>
+      </c>
+      <c r="L107" t="n">
+        <v>3.243757902594334</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4443,7 +5089,13 @@
       <c r="J108" t="n">
         <v>1746</v>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="K108" t="n">
+        <v>0.5296163575042158</v>
+      </c>
+      <c r="L108" t="n">
+        <v>3.369136696435756</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4480,7 +5132,13 @@
       <c r="J109" t="n">
         <v>1947.625</v>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="K109" t="n">
+        <v>0.4665184279281783</v>
+      </c>
+      <c r="L109" t="n">
+        <v>4.067801539445877</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4517,7 +5175,13 @@
       <c r="J110" t="n">
         <v>1862.833333333333</v>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="K110" t="n">
+        <v>0.5478713723733393</v>
+      </c>
+      <c r="L110" t="n">
+        <v>3.204319916156289</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4554,7 +5218,13 @@
       <c r="J111" t="n">
         <v>1937.888888888889</v>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="K111" t="n">
+        <v>0.5133690845799229</v>
+      </c>
+      <c r="L111" t="n">
+        <v>3.369686041054266</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4591,7 +5261,13 @@
       <c r="J112" t="n">
         <v>2054.592592592593</v>
       </c>
-      <c r="K112" t="inlineStr">
+      <c r="K112" t="n">
+        <v>0.5067004483525218</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2.978999941585371</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4628,7 +5304,13 @@
       <c r="J113" t="n">
         <v>1928.5625</v>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="K113" t="n">
+        <v>0.5328404803790968</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3.581123564789503</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4665,7 +5347,13 @@
       <c r="J114" t="n">
         <v>1865.733333333333</v>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="K114" t="n">
+        <v>0.5357786013872268</v>
+      </c>
+      <c r="L114" t="n">
+        <v>3.308011247883851</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4702,7 +5390,13 @@
       <c r="J115" t="n">
         <v>2030.3125</v>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="K115" t="n">
+        <v>0.5181415834598362</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3.353212215134701</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4739,7 +5433,13 @@
       <c r="J116" t="n">
         <v>1768.954545454545</v>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="K116" t="n">
+        <v>0.5750926791042527</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3.242283413055115</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4776,7 +5476,13 @@
       <c r="J117" t="n">
         <v>2074.090909090909</v>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="K117" t="n">
+        <v>0.3632749543354464</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2.36015450483991</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4813,7 +5519,13 @@
       <c r="J118" t="n">
         <v>2003.428571428571</v>
       </c>
-      <c r="K118" t="inlineStr">
+      <c r="K118" t="n">
+        <v>0.5119849638742433</v>
+      </c>
+      <c r="L118" t="n">
+        <v>3.183577445549061</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4850,7 +5562,13 @@
       <c r="J119" t="n">
         <v>2140.642857142857</v>
       </c>
-      <c r="K119" t="inlineStr">
+      <c r="K119" t="n">
+        <v>0.5231924840012709</v>
+      </c>
+      <c r="L119" t="n">
+        <v>3.389842968887841</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4887,7 +5605,13 @@
       <c r="J120" t="n">
         <v>2033.266666666667</v>
       </c>
-      <c r="K120" t="inlineStr">
+      <c r="K120" t="n">
+        <v>0.5446972732449019</v>
+      </c>
+      <c r="L120" t="n">
+        <v>3.201571718974664</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4924,7 +5648,13 @@
       <c r="J121" t="n">
         <v>1841.846153846154</v>
       </c>
-      <c r="K121" t="inlineStr">
+      <c r="K121" t="n">
+        <v>0.5322635355512068</v>
+      </c>
+      <c r="L121" t="n">
+        <v>3.55129611253286</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4961,7 +5691,13 @@
       <c r="J122" t="n">
         <v>1920.222222222222</v>
       </c>
-      <c r="K122" t="inlineStr">
+      <c r="K122" t="n">
+        <v>0.3056408192019323</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2.558012213097495</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -4998,7 +5734,13 @@
       <c r="J123" t="n">
         <v>2263.153846153846</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="K123" t="n">
+        <v>0.3563609069408449</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2.981892731021735</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5035,7 +5777,13 @@
       <c r="J124" t="n">
         <v>1925.785714285714</v>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="K124" t="n">
+        <v>0.5532516024643723</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2.849313487942772</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5072,7 +5820,13 @@
       <c r="J125" t="n">
         <v>2055.21052631579</v>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="K125" t="n">
+        <v>0.4646379261763878</v>
+      </c>
+      <c r="L125" t="n">
+        <v>2.484465918536991</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5109,7 +5863,13 @@
       <c r="J126" t="n">
         <v>1940.727272727273</v>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="K126" t="n">
+        <v>0.5707365855182973</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2.635714852685433</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5146,7 +5906,13 @@
       <c r="J127" t="n">
         <v>1862.9375</v>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="K127" t="n">
+        <v>0.5783429738006125</v>
+      </c>
+      <c r="L127" t="n">
+        <v>2.858584372175156</v>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5183,7 +5949,13 @@
       <c r="J128" t="n">
         <v>1791.818181818182</v>
       </c>
-      <c r="K128" t="inlineStr">
+      <c r="K128" t="n">
+        <v>0.4880719182873933</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2.875780622024361</v>
+      </c>
+      <c r="M128" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5220,7 +5992,13 @@
       <c r="J129" t="n">
         <v>1868.4</v>
       </c>
-      <c r="K129" t="inlineStr">
+      <c r="K129" t="n">
+        <v>0.4003729512219059</v>
+      </c>
+      <c r="L129" t="n">
+        <v>2.936087519792713</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5257,7 +6035,13 @@
       <c r="J130" t="n">
         <v>1939.307692307692</v>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="K130" t="n">
+        <v>0.5361316960983417</v>
+      </c>
+      <c r="L130" t="n">
+        <v>3.046139503606798</v>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5294,7 +6078,13 @@
       <c r="J131" t="n">
         <v>2116.294117647059</v>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="K131" t="n">
+        <v>0.4216874512860483</v>
+      </c>
+      <c r="L131" t="n">
+        <v>4.583598085313684</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5331,7 +6121,13 @@
       <c r="J132" t="n">
         <v>1932.642857142857</v>
       </c>
-      <c r="K132" t="inlineStr">
+      <c r="K132" t="n">
+        <v>0.5277049942718436</v>
+      </c>
+      <c r="L132" t="n">
+        <v>3.611473373699733</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5368,7 +6164,13 @@
       <c r="J133" t="n">
         <v>1990.153846153846</v>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="K133" t="n">
+        <v>0.4894958256815015</v>
+      </c>
+      <c r="L133" t="n">
+        <v>3.820264693325744</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5405,7 +6207,13 @@
       <c r="J134" t="n">
         <v>1836.538461538461</v>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="K134" t="n">
+        <v>0.5137738339277189</v>
+      </c>
+      <c r="L134" t="n">
+        <v>3.201960098004899</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5442,7 +6250,13 @@
       <c r="J135" t="n">
         <v>2053.1</v>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="K135" t="n">
+        <v>0.4731393896127074</v>
+      </c>
+      <c r="L135" t="n">
+        <v>2.622213918318898</v>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5479,7 +6293,13 @@
       <c r="J136" t="n">
         <v>2077.545454545455</v>
       </c>
-      <c r="K136" t="inlineStr">
+      <c r="K136" t="n">
+        <v>0.511090319562517</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2.77147955702514</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5516,7 +6336,13 @@
       <c r="J137" t="n">
         <v>2024.25</v>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="K137" t="n">
+        <v>0.5100324861456145</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2.789058229638919</v>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5553,7 +6379,13 @@
       <c r="J138" t="n">
         <v>1907.545454545455</v>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="K138" t="n">
+        <v>0.5402758800182184</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2.895273627503964</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5590,7 +6422,13 @@
       <c r="J139" t="n">
         <v>2009.866666666667</v>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="K139" t="n">
+        <v>0.5022898207602444</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2.588965449233917</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5627,7 +6465,13 @@
       <c r="J140" t="n">
         <v>1913.909090909091</v>
       </c>
-      <c r="K140" t="inlineStr">
+      <c r="K140" t="n">
+        <v>0.4526861057732476</v>
+      </c>
+      <c r="L140" t="n">
+        <v>3.514021843463826</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5664,7 +6508,13 @@
       <c r="J141" t="n">
         <v>2043.555555555556</v>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="K141" t="n">
+        <v>0.3677680719078364</v>
+      </c>
+      <c r="L141" t="n">
+        <v>2.813014428197929</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5701,7 +6551,13 @@
       <c r="J142" t="n">
         <v>1897.818181818182</v>
       </c>
-      <c r="K142" t="inlineStr">
+      <c r="K142" t="n">
+        <v>0.5251402498317002</v>
+      </c>
+      <c r="L142" t="n">
+        <v>3.696064185987747</v>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5738,7 +6594,13 @@
       <c r="J143" t="n">
         <v>2106.875</v>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="K143" t="n">
+        <v>0.4290636042402827</v>
+      </c>
+      <c r="L143" t="n">
+        <v>3.408899494665918</v>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5775,7 +6637,13 @@
       <c r="J144" t="n">
         <v>2430</v>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="K144" t="n">
+        <v>0.3287871567773633</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2.304971891991521</v>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5812,7 +6680,13 @@
       <c r="J145" t="n">
         <v>2101.090909090909</v>
       </c>
-      <c r="K145" t="inlineStr">
+      <c r="K145" t="n">
+        <v>0.3995148594907675</v>
+      </c>
+      <c r="L145" t="n">
+        <v>3.065537238218237</v>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5849,7 +6723,13 @@
       <c r="J146" t="n">
         <v>2061.444444444444</v>
       </c>
-      <c r="K146" t="inlineStr">
+      <c r="K146" t="n">
+        <v>0.4942029813238906</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3.665282954930534</v>
+      </c>
+      <c r="M146" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5886,7 +6766,13 @@
       <c r="J147" t="n">
         <v>1974.75</v>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="K147" t="n">
+        <v>0.4723966226455943</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2.634992926888176</v>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5923,7 +6809,13 @@
       <c r="J148" t="n">
         <v>1929.6</v>
       </c>
-      <c r="K148" t="inlineStr">
+      <c r="K148" t="n">
+        <v>0.5322842310188189</v>
+      </c>
+      <c r="L148" t="n">
+        <v>3.657748049052397</v>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5960,7 +6852,13 @@
       <c r="J149" t="n">
         <v>2006.666666666667</v>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="K149" t="n">
+        <v>0.4323711340206186</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3.904612438155026</v>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -5997,7 +6895,13 @@
       <c r="J150" t="n">
         <v>1930.454545454545</v>
       </c>
-      <c r="K150" t="inlineStr">
+      <c r="K150" t="n">
+        <v>0.4770264878303306</v>
+      </c>
+      <c r="L150" t="n">
+        <v>3.708334327503521</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6034,7 +6938,13 @@
       <c r="J151" t="n">
         <v>1843.222222222222</v>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="K151" t="n">
+        <v>0.4156041742558981</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3.573534288978152</v>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6071,7 +6981,13 @@
       <c r="J152" t="n">
         <v>2006.2</v>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="K152" t="n">
+        <v>0.4337367701423001</v>
+      </c>
+      <c r="L152" t="n">
+        <v>3.66252592418379</v>
+      </c>
+      <c r="M152" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6108,7 +7024,13 @@
       <c r="J153" t="n">
         <v>1923.222222222222</v>
       </c>
-      <c r="K153" t="inlineStr">
+      <c r="K153" t="n">
+        <v>0.5035153060208329</v>
+      </c>
+      <c r="L153" t="n">
+        <v>3.446531791907516</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6145,7 +7067,13 @@
       <c r="J154" t="n">
         <v>1959.777777777778</v>
       </c>
-      <c r="K154" t="inlineStr">
+      <c r="K154" t="n">
+        <v>0.5330575639599554</v>
+      </c>
+      <c r="L154" t="n">
+        <v>3.593438781487987</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6182,7 +7110,13 @@
       <c r="J155" t="n">
         <v>2018.727272727273</v>
       </c>
-      <c r="K155" t="inlineStr">
+      <c r="K155" t="n">
+        <v>0.5167113662384918</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3.197922733449813</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6219,7 +7153,13 @@
       <c r="J156" t="n">
         <v>1881.428571428571</v>
       </c>
-      <c r="K156" t="inlineStr">
+      <c r="K156" t="n">
+        <v>0.4823286166569749</v>
+      </c>
+      <c r="L156" t="n">
+        <v>4.006719910687449</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6256,7 +7196,13 @@
       <c r="J157" t="n">
         <v>1929.833333333333</v>
       </c>
-      <c r="K157" t="inlineStr">
+      <c r="K157" t="n">
+        <v>0.3828067597354886</v>
+      </c>
+      <c r="L157" t="n">
+        <v>3.679749772979518</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6293,7 +7239,13 @@
       <c r="J158" t="n">
         <v>2011.3</v>
       </c>
-      <c r="K158" t="inlineStr">
+      <c r="K158" t="n">
+        <v>0.4209128889930108</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2.56093505012591</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6330,7 +7282,13 @@
       <c r="J159" t="n">
         <v>2253.5</v>
       </c>
-      <c r="K159" t="inlineStr">
+      <c r="K159" t="n">
+        <v>0.4289957656575871</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2.454617776813481</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6367,7 +7325,13 @@
       <c r="J160" t="n">
         <v>2026.818181818182</v>
       </c>
-      <c r="K160" t="inlineStr">
+      <c r="K160" t="n">
+        <v>0.5053288195097485</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2.78910034602076</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6404,7 +7368,13 @@
       <c r="J161" t="n">
         <v>2246.916666666667</v>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="K161" t="n">
+        <v>0.3898484547680498</v>
+      </c>
+      <c r="L161" t="n">
+        <v>2.358664317745035</v>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6441,7 +7411,13 @@
       <c r="J162" t="n">
         <v>1971.545454545455</v>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="K162" t="n">
+        <v>0.4640612923821365</v>
+      </c>
+      <c r="L162" t="n">
+        <v>3.696170007761689</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6478,7 +7454,13 @@
       <c r="J163" t="n">
         <v>1929.785714285714</v>
       </c>
-      <c r="K163" t="inlineStr">
+      <c r="K163" t="n">
+        <v>0.4366898903646076</v>
+      </c>
+      <c r="L163" t="n">
+        <v>3.410282551704049</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6515,7 +7497,13 @@
       <c r="J164" t="n">
         <v>1907.111111111111</v>
       </c>
-      <c r="K164" t="inlineStr">
+      <c r="K164" t="n">
+        <v>0.4723154686113361</v>
+      </c>
+      <c r="L164" t="n">
+        <v>3.218266905037332</v>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6552,7 +7540,13 @@
       <c r="J165" t="n">
         <v>1976.142857142857</v>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="K165" t="n">
+        <v>0.5557691896857442</v>
+      </c>
+      <c r="L165" t="n">
+        <v>3.332095191741166</v>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6589,7 +7583,13 @@
       <c r="J166" t="n">
         <v>2031.7</v>
       </c>
-      <c r="K166" t="inlineStr">
+      <c r="K166" t="n">
+        <v>0.449998152868595</v>
+      </c>
+      <c r="L166" t="n">
+        <v>3.080599883665057</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6626,7 +7626,13 @@
       <c r="J167" t="n">
         <v>1942</v>
       </c>
-      <c r="K167" t="inlineStr">
+      <c r="K167" t="n">
+        <v>0.5483107463256347</v>
+      </c>
+      <c r="L167" t="n">
+        <v>3.362833930369226</v>
+      </c>
+      <c r="M167" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6663,7 +7669,13 @@
       <c r="J168" t="n">
         <v>2068.909090909091</v>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="K168" t="n">
+        <v>0.4531596007574055</v>
+      </c>
+      <c r="L168" t="n">
+        <v>2.998004161535521</v>
+      </c>
+      <c r="M168" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6700,7 +7712,13 @@
       <c r="J169" t="n">
         <v>1942.444444444444</v>
       </c>
-      <c r="K169" t="inlineStr">
+      <c r="K169" t="n">
+        <v>0.3678619508016154</v>
+      </c>
+      <c r="L169" t="n">
+        <v>3.130650335374745</v>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6737,7 +7755,13 @@
       <c r="J170" t="n">
         <v>2138.8</v>
       </c>
-      <c r="K170" t="inlineStr">
+      <c r="K170" t="n">
+        <v>0.3907474442101914</v>
+      </c>
+      <c r="L170" t="n">
+        <v>2.8352479362697</v>
+      </c>
+      <c r="M170" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6774,7 +7798,13 @@
       <c r="J171" t="n">
         <v>2032.636363636364</v>
       </c>
-      <c r="K171" t="inlineStr">
+      <c r="K171" t="n">
+        <v>0.4367406028643814</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2.33867990697331</v>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6811,7 +7841,13 @@
       <c r="J172" t="n">
         <v>2021.769230769231</v>
       </c>
-      <c r="K172" t="inlineStr">
+      <c r="K172" t="n">
+        <v>0.5627445997458704</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2.746678904999939</v>
+      </c>
+      <c r="M172" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6848,7 +7884,13 @@
       <c r="J173" t="n">
         <v>2107.428571428572</v>
       </c>
-      <c r="K173" t="inlineStr">
+      <c r="K173" t="n">
+        <v>0.5326286877406382</v>
+      </c>
+      <c r="L173" t="n">
+        <v>2.204840314295576</v>
+      </c>
+      <c r="M173" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6885,7 +7927,13 @@
       <c r="J174" t="n">
         <v>2165.3</v>
       </c>
-      <c r="K174" t="inlineStr">
+      <c r="K174" t="n">
+        <v>0.5269989615784009</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2.621299673951643</v>
+      </c>
+      <c r="M174" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6922,7 +7970,13 @@
       <c r="J175" t="n">
         <v>1764.333333333333</v>
       </c>
-      <c r="K175" t="inlineStr">
+      <c r="K175" t="n">
+        <v>0.4905233950189085</v>
+      </c>
+      <c r="L175" t="n">
+        <v>2.660896797844188</v>
+      </c>
+      <c r="M175" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6959,7 +8013,13 @@
       <c r="J176" t="n">
         <v>1816.307692307692</v>
       </c>
-      <c r="K176" t="inlineStr">
+      <c r="K176" t="n">
+        <v>0.4559949976551509</v>
+      </c>
+      <c r="L176" t="n">
+        <v>2.457207358986453</v>
+      </c>
+      <c r="M176" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -6996,7 +8056,13 @@
       <c r="J177" t="n">
         <v>1933</v>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="K177" t="n">
+        <v>0.4271809729402186</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2.379641350210971</v>
+      </c>
+      <c r="M177" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7033,7 +8099,13 @@
       <c r="J178" t="n">
         <v>1915</v>
       </c>
-      <c r="K178" t="inlineStr">
+      <c r="K178" t="n">
+        <v>0.4909029241466192</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2.571773067648179</v>
+      </c>
+      <c r="M178" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7070,7 +8142,13 @@
       <c r="J179" t="n">
         <v>2069</v>
       </c>
-      <c r="K179" t="inlineStr">
+      <c r="K179" t="n">
+        <v>0.3881633989305592</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1.734811659703142</v>
+      </c>
+      <c r="M179" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7107,7 +8185,13 @@
       <c r="J180" t="n">
         <v>2147.833333333333</v>
       </c>
-      <c r="K180" t="inlineStr">
+      <c r="K180" t="n">
+        <v>0.4480440097799511</v>
+      </c>
+      <c r="L180" t="n">
+        <v>2.190871865379442</v>
+      </c>
+      <c r="M180" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7144,7 +8228,13 @@
       <c r="J181" t="n">
         <v>1917.090909090909</v>
       </c>
-      <c r="K181" t="inlineStr">
+      <c r="K181" t="n">
+        <v>0.4457065634245225</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2.218606257840481</v>
+      </c>
+      <c r="M181" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7181,7 +8271,13 @@
       <c r="J182" t="n">
         <v>1943.9</v>
       </c>
-      <c r="K182" t="inlineStr">
+      <c r="K182" t="n">
+        <v>0.5254243376740009</v>
+      </c>
+      <c r="L182" t="n">
+        <v>2.467982789167299</v>
+      </c>
+      <c r="M182" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7218,7 +8314,13 @@
       <c r="J183" t="n">
         <v>1925.5</v>
       </c>
-      <c r="K183" t="inlineStr">
+      <c r="K183" t="n">
+        <v>0.524647571159199</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2.499037680167658</v>
+      </c>
+      <c r="M183" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7255,7 +8357,13 @@
       <c r="J184" t="n">
         <v>1931.111111111111</v>
       </c>
-      <c r="K184" t="inlineStr">
+      <c r="K184" t="n">
+        <v>0.4930106587454132</v>
+      </c>
+      <c r="L184" t="n">
+        <v>2.653905845835488</v>
+      </c>
+      <c r="M184" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7292,7 +8400,13 @@
       <c r="J185" t="n">
         <v>1909.5</v>
       </c>
-      <c r="K185" t="inlineStr">
+      <c r="K185" t="n">
+        <v>0.5547205051807711</v>
+      </c>
+      <c r="L185" t="n">
+        <v>2.689579335475107</v>
+      </c>
+      <c r="M185" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7329,7 +8443,13 @@
       <c r="J186" t="n">
         <v>2033</v>
       </c>
-      <c r="K186" t="inlineStr">
+      <c r="K186" t="n">
+        <v>0.4230081548994811</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1.882142926441198</v>
+      </c>
+      <c r="M186" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7366,7 +8486,13 @@
       <c r="J187" t="n">
         <v>1964</v>
       </c>
-      <c r="K187" t="inlineStr">
+      <c r="K187" t="n">
+        <v>0.5422820453862072</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2.512456157603173</v>
+      </c>
+      <c r="M187" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7403,7 +8529,13 @@
       <c r="J188" t="n">
         <v>1904.461538461539</v>
       </c>
-      <c r="K188" t="inlineStr">
+      <c r="K188" t="n">
+        <v>0.5119182746878548</v>
+      </c>
+      <c r="L188" t="n">
+        <v>2.697981190083147</v>
+      </c>
+      <c r="M188" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7440,7 +8572,13 @@
       <c r="J189" t="n">
         <v>1927.785714285714</v>
       </c>
-      <c r="K189" t="inlineStr">
+      <c r="K189" t="n">
+        <v>0.4869831969931462</v>
+      </c>
+      <c r="L189" t="n">
+        <v>2.537622949639252</v>
+      </c>
+      <c r="M189" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7477,7 +8615,13 @@
       <c r="J190" t="n">
         <v>1968.6</v>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="K190" t="n">
+        <v>0.425721784776903</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1.851273046532046</v>
+      </c>
+      <c r="M190" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7514,7 +8658,13 @@
       <c r="J191" t="n">
         <v>1864.642857142857</v>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="K191" t="n">
+        <v>0.4797707302717323</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2.447210030451628</v>
+      </c>
+      <c r="M191" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -7551,7 +8701,13 @@
       <c r="J192" t="n">
         <v>2325.875</v>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="K192" t="n">
+        <v>0.2641306169351943</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1.64804469273743</v>
+      </c>
+      <c r="M192" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -7588,7 +8744,13 @@
       <c r="J193" t="n">
         <v>2491.384615384615</v>
       </c>
-      <c r="K193" t="inlineStr">
+      <c r="K193" t="n">
+        <v>0.3645977478449643</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1.77192462888239</v>
+      </c>
+      <c r="M193" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -7625,7 +8787,13 @@
       <c r="J194" t="n">
         <v>2124.384615384615</v>
       </c>
-      <c r="K194" t="inlineStr">
+      <c r="K194" t="n">
+        <v>0.4858496246638032</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2.419084040667849</v>
+      </c>
+      <c r="M194" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -7662,7 +8830,13 @@
       <c r="J195" t="n">
         <v>2300.9</v>
       </c>
-      <c r="K195" t="inlineStr">
+      <c r="K195" t="n">
+        <v>0.3898420552537694</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1.902349832904658</v>
+      </c>
+      <c r="M195" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -7699,7 +8873,13 @@
       <c r="J196" t="n">
         <v>1828.7</v>
       </c>
-      <c r="K196" t="inlineStr">
+      <c r="K196" t="n">
+        <v>0.3948565856829447</v>
+      </c>
+      <c r="L196" t="n">
+        <v>2.484343447253394</v>
+      </c>
+      <c r="M196" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -7736,7 +8916,13 @@
       <c r="J197" t="n">
         <v>1693.125</v>
       </c>
-      <c r="K197" t="inlineStr">
+      <c r="K197" t="n">
+        <v>0.3808980468487818</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2.498151148049021</v>
+      </c>
+      <c r="M197" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -7773,7 +8959,13 @@
       <c r="J198" t="n">
         <v>1780</v>
       </c>
-      <c r="K198" t="inlineStr">
+      <c r="K198" t="n">
+        <v>0.4041879654376087</v>
+      </c>
+      <c r="L198" t="n">
+        <v>2.416612367743337</v>
+      </c>
+      <c r="M198" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -7810,7 +9002,13 @@
       <c r="J199" t="n">
         <v>1443.444444444444</v>
       </c>
-      <c r="K199" t="inlineStr">
+      <c r="K199" t="n">
+        <v>0.2274117758365133</v>
+      </c>
+      <c r="L199" t="n">
+        <v>3.04235929457429</v>
+      </c>
+      <c r="M199" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -7847,7 +9045,13 @@
       <c r="J200" t="n">
         <v>1221</v>
       </c>
-      <c r="K200" t="inlineStr">
+      <c r="K200" t="n">
+        <v>0.06077181497114308</v>
+      </c>
+      <c r="L200" t="n">
+        <v>-2.831059390048164</v>
+      </c>
+      <c r="M200" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -7884,7 +9088,13 @@
       <c r="J201" t="n">
         <v>1269.181818181818</v>
       </c>
-      <c r="K201" t="inlineStr">
+      <c r="K201" t="n">
+        <v>0.09025614949469263</v>
+      </c>
+      <c r="L201" t="n">
+        <v>-47.17607973421981</v>
+      </c>
+      <c r="M201" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -7921,7 +9131,13 @@
       <c r="J202" t="n">
         <v>1178.25</v>
       </c>
-      <c r="K202" t="inlineStr">
+      <c r="K202" t="n">
+        <v>-0.003785260524670084</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.05736233040702413</v>
+      </c>
+      <c r="M202" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -7958,7 +9174,13 @@
       <c r="J203" t="n">
         <v>2095.5</v>
       </c>
-      <c r="K203" t="inlineStr">
+      <c r="K203" t="n">
+        <v>0.5161316104968696</v>
+      </c>
+      <c r="L203" t="n">
+        <v>2.335953891045893</v>
+      </c>
+      <c r="M203" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -7995,7 +9217,13 @@
       <c r="J204" t="n">
         <v>2500.588235294118</v>
       </c>
-      <c r="K204" t="inlineStr">
+      <c r="K204" t="n">
+        <v>0.3191245296870698</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1.682980242223324</v>
+      </c>
+      <c r="M204" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8032,7 +9260,13 @@
       <c r="J205" t="n">
         <v>1959</v>
       </c>
-      <c r="K205" t="inlineStr">
+      <c r="K205" t="n">
+        <v>0.4921295668841604</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2.437195566294634</v>
+      </c>
+      <c r="M205" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8069,7 +9303,13 @@
       <c r="J206" t="n">
         <v>1969.5</v>
       </c>
-      <c r="K206" t="inlineStr">
+      <c r="K206" t="n">
+        <v>0.3996729904542066</v>
+      </c>
+      <c r="L206" t="n">
+        <v>2.14041051791187</v>
+      </c>
+      <c r="M206" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8106,7 +9346,13 @@
       <c r="J207" t="n">
         <v>1978.769230769231</v>
       </c>
-      <c r="K207" t="inlineStr">
+      <c r="K207" t="n">
+        <v>0.4173396573088921</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2.121446878755845</v>
+      </c>
+      <c r="M207" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8143,7 +9389,13 @@
       <c r="J208" t="n">
         <v>2109.5</v>
       </c>
-      <c r="K208" t="inlineStr">
+      <c r="K208" t="n">
+        <v>0.5309391491150236</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2.295592827912988</v>
+      </c>
+      <c r="M208" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8180,7 +9432,13 @@
       <c r="J209" t="n">
         <v>2086.7</v>
       </c>
-      <c r="K209" t="inlineStr">
+      <c r="K209" t="n">
+        <v>0.3812077593253454</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1.779260417248245</v>
+      </c>
+      <c r="M209" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8217,7 +9475,13 @@
       <c r="J210" t="n">
         <v>2108.5</v>
       </c>
-      <c r="K210" t="inlineStr">
+      <c r="K210" t="n">
+        <v>0.5827685868048634</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2.453891185295538</v>
+      </c>
+      <c r="M210" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8254,7 +9518,13 @@
       <c r="J211" t="n">
         <v>2252.777777777778</v>
       </c>
-      <c r="K211" t="inlineStr">
+      <c r="K211" t="n">
+        <v>0.3979610303432466</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1.717521478781567</v>
+      </c>
+      <c r="M211" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8291,7 +9561,13 @@
       <c r="J212" t="n">
         <v>2131.6</v>
       </c>
-      <c r="K212" t="inlineStr">
+      <c r="K212" t="n">
+        <v>0.4292805755395684</v>
+      </c>
+      <c r="L212" t="n">
+        <v>2.103648863035432</v>
+      </c>
+      <c r="M212" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8328,7 +9604,13 @@
       <c r="J213" t="n">
         <v>1146.133333333333</v>
       </c>
-      <c r="K213" t="inlineStr">
+      <c r="K213" t="n">
+        <v>-0.001639084227779876</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0.02209865982321127</v>
+      </c>
+      <c r="M213" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8365,7 +9647,13 @@
       <c r="J214" t="n">
         <v>2032.857142857143</v>
       </c>
-      <c r="K214" t="inlineStr">
+      <c r="K214" t="n">
+        <v>0.4825239866849423</v>
+      </c>
+      <c r="L214" t="n">
+        <v>2.301907942364728</v>
+      </c>
+      <c r="M214" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8402,7 +9690,13 @@
       <c r="J215" t="n">
         <v>1383.3125</v>
       </c>
-      <c r="K215" t="inlineStr">
+      <c r="K215" t="n">
+        <v>0.1043680814660592</v>
+      </c>
+      <c r="L215" t="n">
+        <v>80.62101910828025</v>
+      </c>
+      <c r="M215" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8439,7 +9733,13 @@
       <c r="J216" t="n">
         <v>1315.909090909091</v>
       </c>
-      <c r="K216" t="inlineStr">
+      <c r="K216" t="n">
+        <v>0.1313401755168824</v>
+      </c>
+      <c r="L216" t="n">
+        <v>-3.469275498978478</v>
+      </c>
+      <c r="M216" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8476,7 +9776,13 @@
       <c r="J217" t="n">
         <v>1933.466666666667</v>
       </c>
-      <c r="K217" t="inlineStr">
+      <c r="K217" t="n">
+        <v>0.4468715470451813</v>
+      </c>
+      <c r="L217" t="n">
+        <v>2.525458388230128</v>
+      </c>
+      <c r="M217" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8513,7 +9819,13 @@
       <c r="J218" t="n">
         <v>2009.538461538461</v>
       </c>
-      <c r="K218" t="inlineStr">
+      <c r="K218" t="n">
+        <v>0.4376513063069366</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2.389301430143016</v>
+      </c>
+      <c r="M218" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8550,7 +9862,13 @@
       <c r="J219" t="n">
         <v>2126.583333333333</v>
       </c>
-      <c r="K219" t="inlineStr">
+      <c r="K219" t="n">
+        <v>0.4921254469525344</v>
+      </c>
+      <c r="L219" t="n">
+        <v>2.391500424448218</v>
+      </c>
+      <c r="M219" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8587,7 +9905,13 @@
       <c r="J220" t="n">
         <v>1334.142857142857</v>
       </c>
-      <c r="K220" t="inlineStr">
+      <c r="K220" t="n">
+        <v>0.1192741860248157</v>
+      </c>
+      <c r="L220" t="n">
+        <v>-3.464769647696466</v>
+      </c>
+      <c r="M220" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8624,7 +9948,13 @@
       <c r="J221" t="n">
         <v>2357.666666666667</v>
       </c>
-      <c r="K221" t="inlineStr">
+      <c r="K221" t="n">
+        <v>0.4014915920713091</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1.831576859390093</v>
+      </c>
+      <c r="M221" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8661,7 +9991,13 @@
       <c r="J222" t="n">
         <v>2208.692307692308</v>
       </c>
-      <c r="K222" t="inlineStr">
+      <c r="K222" t="n">
+        <v>0.2815156447820582</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1.375263227649579</v>
+      </c>
+      <c r="M222" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8698,7 +10034,13 @@
       <c r="J223" t="n">
         <v>2668.8</v>
       </c>
-      <c r="K223" t="inlineStr">
+      <c r="K223" t="n">
+        <v>0.3129612306413054</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1.304555038849253</v>
+      </c>
+      <c r="M223" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8735,7 +10077,13 @@
       <c r="J224" t="n">
         <v>2178.636363636364</v>
       </c>
-      <c r="K224" t="inlineStr">
+      <c r="K224" t="n">
+        <v>0.4577354911738613</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2.342204132748904</v>
+      </c>
+      <c r="M224" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8772,7 +10120,13 @@
       <c r="J225" t="n">
         <v>2255</v>
       </c>
-      <c r="K225" t="inlineStr">
+      <c r="K225" t="n">
+        <v>0.4624169194304942</v>
+      </c>
+      <c r="L225" t="n">
+        <v>2.174817979139708</v>
+      </c>
+      <c r="M225" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8809,7 +10163,13 @@
       <c r="J226" t="n">
         <v>2121.55</v>
       </c>
-      <c r="K226" t="inlineStr">
+      <c r="K226" t="n">
+        <v>0.3986227304277937</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2.284556760604662</v>
+      </c>
+      <c r="M226" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8846,7 +10206,13 @@
       <c r="J227" t="n">
         <v>2202.5</v>
       </c>
-      <c r="K227" t="inlineStr">
+      <c r="K227" t="n">
+        <v>0.3233401221995926</v>
+      </c>
+      <c r="L227" t="n">
+        <v>2.230075965298692</v>
+      </c>
+      <c r="M227" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8883,7 +10249,13 @@
       <c r="J228" t="n">
         <v>2124.769230769231</v>
       </c>
-      <c r="K228" t="inlineStr">
+      <c r="K228" t="n">
+        <v>0.4012833781825709</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2.565145286780403</v>
+      </c>
+      <c r="M228" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8920,7 +10292,13 @@
       <c r="J229" t="n">
         <v>1995.181818181818</v>
       </c>
-      <c r="K229" t="inlineStr">
+      <c r="K229" t="n">
+        <v>0.5146838545685625</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2.756957839625241</v>
+      </c>
+      <c r="M229" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8957,7 +10335,13 @@
       <c r="J230" t="n">
         <v>1981.133333333333</v>
       </c>
-      <c r="K230" t="inlineStr">
+      <c r="K230" t="n">
+        <v>0.5134681806645258</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2.895087230282969</v>
+      </c>
+      <c r="M230" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -8994,7 +10378,13 @@
       <c r="J231" t="n">
         <v>1898.888888888889</v>
       </c>
-      <c r="K231" t="inlineStr">
+      <c r="K231" t="n">
+        <v>0.261387176479397</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1.620605347858381</v>
+      </c>
+      <c r="M231" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9031,7 +10421,13 @@
       <c r="J232" t="n">
         <v>2040.692307692308</v>
       </c>
-      <c r="K232" t="inlineStr">
+      <c r="K232" t="n">
+        <v>0.4193247691456203</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2.664655140498314</v>
+      </c>
+      <c r="M232" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9068,7 +10464,13 @@
       <c r="J233" t="n">
         <v>1994.5</v>
       </c>
-      <c r="K233" t="inlineStr">
+      <c r="K233" t="n">
+        <v>0.4213039664750025</v>
+      </c>
+      <c r="L233" t="n">
+        <v>2.667859787706739</v>
+      </c>
+      <c r="M233" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9105,7 +10507,13 @@
       <c r="J234" t="n">
         <v>1939</v>
       </c>
-      <c r="K234" t="inlineStr">
+      <c r="K234" t="n">
+        <v>0.4824761422177181</v>
+      </c>
+      <c r="L234" t="n">
+        <v>2.663072189937534</v>
+      </c>
+      <c r="M234" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9142,7 +10550,13 @@
       <c r="J235" t="n">
         <v>1976.75</v>
       </c>
-      <c r="K235" t="inlineStr">
+      <c r="K235" t="n">
+        <v>0.4959655888460397</v>
+      </c>
+      <c r="L235" t="n">
+        <v>2.483364030657714</v>
+      </c>
+      <c r="M235" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9179,7 +10593,13 @@
       <c r="J236" t="n">
         <v>1886</v>
       </c>
-      <c r="K236" t="inlineStr">
+      <c r="K236" t="n">
+        <v>0.4409610824382759</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2.492804478965422</v>
+      </c>
+      <c r="M236" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9216,7 +10636,13 @@
       <c r="J237" t="n">
         <v>2010.6</v>
       </c>
-      <c r="K237" t="inlineStr">
+      <c r="K237" t="n">
+        <v>0.583792957148918</v>
+      </c>
+      <c r="L237" t="n">
+        <v>2.801139998836734</v>
+      </c>
+      <c r="M237" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9253,7 +10679,13 @@
       <c r="J238" t="n">
         <v>2109.125</v>
       </c>
-      <c r="K238" t="inlineStr">
+      <c r="K238" t="n">
+        <v>0.408568303083071</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2.150933195430398</v>
+      </c>
+      <c r="M238" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9290,7 +10722,13 @@
       <c r="J239" t="n">
         <v>2112.846153846154</v>
       </c>
-      <c r="K239" t="inlineStr">
+      <c r="K239" t="n">
+        <v>0.4703063082360502</v>
+      </c>
+      <c r="L239" t="n">
+        <v>2.557401394813854</v>
+      </c>
+      <c r="M239" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9327,7 +10765,13 @@
       <c r="J240" t="n">
         <v>2300.4</v>
       </c>
-      <c r="K240" t="inlineStr">
+      <c r="K240" t="n">
+        <v>0.3619331488183947</v>
+      </c>
+      <c r="L240" t="n">
+        <v>1.761414657732955</v>
+      </c>
+      <c r="M240" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9364,7 +10808,13 @@
       <c r="J241" t="n">
         <v>2275.642857142857</v>
       </c>
-      <c r="K241" t="inlineStr">
+      <c r="K241" t="n">
+        <v>0.2819894498869631</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1.91747970812495</v>
+      </c>
+      <c r="M241" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9401,7 +10851,13 @@
       <c r="J242" t="n">
         <v>2107.090909090909</v>
       </c>
-      <c r="K242" t="inlineStr">
+      <c r="K242" t="n">
+        <v>0.3887609480116779</v>
+      </c>
+      <c r="L242" t="n">
+        <v>2.362892915399196</v>
+      </c>
+      <c r="M242" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9438,7 +10894,13 @@
       <c r="J243" t="n">
         <v>2156.4</v>
       </c>
-      <c r="K243" t="inlineStr">
+      <c r="K243" t="n">
+        <v>0.3844596758695792</v>
+      </c>
+      <c r="L243" t="n">
+        <v>2.092385999163296</v>
+      </c>
+      <c r="M243" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9475,7 +10937,13 @@
       <c r="J244" t="n">
         <v>1940.083333333333</v>
       </c>
-      <c r="K244" t="inlineStr">
+      <c r="K244" t="n">
+        <v>0.5274216171032685</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2.734263679764966</v>
+      </c>
+      <c r="M244" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9512,7 +10980,13 @@
       <c r="J245" t="n">
         <v>2162.5</v>
       </c>
-      <c r="K245" t="inlineStr">
+      <c r="K245" t="n">
+        <v>0.3836371820841774</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2.166714335653224</v>
+      </c>
+      <c r="M245" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9549,7 +11023,13 @@
       <c r="J246" t="n">
         <v>2089.230769230769</v>
       </c>
-      <c r="K246" t="inlineStr">
+      <c r="K246" t="n">
+        <v>0.5252777260597034</v>
+      </c>
+      <c r="L246" t="n">
+        <v>2.691329288612457</v>
+      </c>
+      <c r="M246" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9586,7 +11066,13 @@
       <c r="J247" t="n">
         <v>2033.909090909091</v>
       </c>
-      <c r="K247" t="inlineStr">
+      <c r="K247" t="n">
+        <v>0.5474995673992041</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2.724141889564918</v>
+      </c>
+      <c r="M247" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9623,7 +11109,13 @@
       <c r="J248" t="n">
         <v>2249.5</v>
       </c>
-      <c r="K248" t="inlineStr">
+      <c r="K248" t="n">
+        <v>0.4175943328032383</v>
+      </c>
+      <c r="L248" t="n">
+        <v>2.039289055191766</v>
+      </c>
+      <c r="M248" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9660,7 +11152,13 @@
       <c r="J249" t="n">
         <v>2009.307692307692</v>
       </c>
-      <c r="K249" t="inlineStr">
+      <c r="K249" t="n">
+        <v>0.3673640963817198</v>
+      </c>
+      <c r="L249" t="n">
+        <v>2.125927149886172</v>
+      </c>
+      <c r="M249" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9697,7 +11195,13 @@
       <c r="J250" t="n">
         <v>1989.1875</v>
       </c>
-      <c r="K250" t="inlineStr">
+      <c r="K250" t="n">
+        <v>0.3433374139451618</v>
+      </c>
+      <c r="L250" t="n">
+        <v>2.052971271153089</v>
+      </c>
+      <c r="M250" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9734,7 +11238,13 @@
       <c r="J251" t="n">
         <v>1965.666666666667</v>
       </c>
-      <c r="K251" t="inlineStr">
+      <c r="K251" t="n">
+        <v>0.4479866300886071</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2.518257231990925</v>
+      </c>
+      <c r="M251" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9771,7 +11281,13 @@
       <c r="J252" t="n">
         <v>1824.2</v>
       </c>
-      <c r="K252" t="inlineStr">
+      <c r="K252" t="n">
+        <v>0.5293037802556432</v>
+      </c>
+      <c r="L252" t="n">
+        <v>2.835084397021069</v>
+      </c>
+      <c r="M252" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9808,7 +11324,13 @@
       <c r="J253" t="n">
         <v>1959.666666666667</v>
       </c>
-      <c r="K253" t="inlineStr">
+      <c r="K253" t="n">
+        <v>0.4299386383241914</v>
+      </c>
+      <c r="L253" t="n">
+        <v>2.793346305147836</v>
+      </c>
+      <c r="M253" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9845,7 +11367,13 @@
       <c r="J254" t="n">
         <v>1999.470588235294</v>
       </c>
-      <c r="K254" t="inlineStr">
+      <c r="K254" t="n">
+        <v>0.2768231650746776</v>
+      </c>
+      <c r="L254" t="n">
+        <v>2.067151945669566</v>
+      </c>
+      <c r="M254" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9882,7 +11410,13 @@
       <c r="J255" t="n">
         <v>1844.578947368421</v>
       </c>
-      <c r="K255" t="inlineStr">
+      <c r="K255" t="n">
+        <v>0.2283302806791743</v>
+      </c>
+      <c r="L255" t="n">
+        <v>2.005827227066166</v>
+      </c>
+      <c r="M255" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9919,7 +11453,13 @@
       <c r="J256" t="n">
         <v>2541.777777777778</v>
       </c>
-      <c r="K256" t="inlineStr">
+      <c r="K256" t="n">
+        <v>0.335529752099321</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1.489547659817351</v>
+      </c>
+      <c r="M256" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9956,7 +11496,13 @@
       <c r="J257" t="n">
         <v>2064.357142857143</v>
       </c>
-      <c r="K257" t="inlineStr">
+      <c r="K257" t="n">
+        <v>0.5365573091611834</v>
+      </c>
+      <c r="L257" t="n">
+        <v>2.665005942042235</v>
+      </c>
+      <c r="M257" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -9993,7 +11539,13 @@
       <c r="J258" t="n">
         <v>2253.272727272727</v>
       </c>
-      <c r="K258" t="inlineStr">
+      <c r="K258" t="n">
+        <v>0.353529956543421</v>
+      </c>
+      <c r="L258" t="n">
+        <v>1.716741909259162</v>
+      </c>
+      <c r="M258" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10030,7 +11582,13 @@
       <c r="J259" t="n">
         <v>1938.428571428571</v>
       </c>
-      <c r="K259" t="inlineStr">
+      <c r="K259" t="n">
+        <v>0.3749608139302915</v>
+      </c>
+      <c r="L259" t="n">
+        <v>2.473399255555139</v>
+      </c>
+      <c r="M259" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10067,7 +11625,13 @@
       <c r="J260" t="n">
         <v>1922.363636363636</v>
       </c>
-      <c r="K260" t="inlineStr">
+      <c r="K260" t="n">
+        <v>0.3543864881995451</v>
+      </c>
+      <c r="L260" t="n">
+        <v>2.26411948262309</v>
+      </c>
+      <c r="M260" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10104,7 +11668,13 @@
       <c r="J261" t="n">
         <v>2051.642857142857</v>
       </c>
-      <c r="K261" t="inlineStr">
+      <c r="K261" t="n">
+        <v>0.3710925322374947</v>
+      </c>
+      <c r="L261" t="n">
+        <v>2.066505689440209</v>
+      </c>
+      <c r="M261" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10141,7 +11711,13 @@
       <c r="J262" t="n">
         <v>1980.625</v>
       </c>
-      <c r="K262" t="inlineStr">
+      <c r="K262" t="n">
+        <v>0.4504877662343542</v>
+      </c>
+      <c r="L262" t="n">
+        <v>2.434141330137221</v>
+      </c>
+      <c r="M262" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10178,7 +11754,13 @@
       <c r="J263" t="n">
         <v>2278.8125</v>
       </c>
-      <c r="K263" t="inlineStr">
+      <c r="K263" t="n">
+        <v>0.4196485674952033</v>
+      </c>
+      <c r="L263" t="n">
+        <v>1.95749565147041</v>
+      </c>
+      <c r="M263" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10215,7 +11797,13 @@
       <c r="J264" t="n">
         <v>2030.947368421053</v>
       </c>
-      <c r="K264" t="inlineStr">
+      <c r="K264" t="n">
+        <v>0.5462274266127466</v>
+      </c>
+      <c r="L264" t="n">
+        <v>2.576171439492881</v>
+      </c>
+      <c r="M264" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10252,7 +11840,13 @@
       <c r="J265" t="n">
         <v>1902.333333333333</v>
       </c>
-      <c r="K265" t="inlineStr">
+      <c r="K265" t="n">
+        <v>0.3367283786890174</v>
+      </c>
+      <c r="L265" t="n">
+        <v>2.150779308786988</v>
+      </c>
+      <c r="M265" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10289,7 +11883,13 @@
       <c r="J266" t="n">
         <v>2085.444444444444</v>
       </c>
-      <c r="K266" t="inlineStr">
+      <c r="K266" t="n">
+        <v>0.3092000285789135</v>
+      </c>
+      <c r="L266" t="n">
+        <v>1.562108961401483</v>
+      </c>
+      <c r="M266" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10326,7 +11926,13 @@
       <c r="J267" t="n">
         <v>1907.5</v>
       </c>
-      <c r="K267" t="inlineStr">
+      <c r="K267" t="n">
+        <v>0.4273343373493976</v>
+      </c>
+      <c r="L267" t="n">
+        <v>2.460704607046071</v>
+      </c>
+      <c r="M267" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10363,7 +11969,13 @@
       <c r="J268" t="n">
         <v>1928.333333333333</v>
       </c>
-      <c r="K268" t="inlineStr">
+      <c r="K268" t="n">
+        <v>0.3934268391058836</v>
+      </c>
+      <c r="L268" t="n">
+        <v>2.213908128450308</v>
+      </c>
+      <c r="M268" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10400,7 +12012,13 @@
       <c r="J269" t="n">
         <v>2014.642857142857</v>
       </c>
-      <c r="K269" t="inlineStr">
+      <c r="K269" t="n">
+        <v>0.5441166419865587</v>
+      </c>
+      <c r="L269" t="n">
+        <v>2.638445477944833</v>
+      </c>
+      <c r="M269" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10437,7 +12055,13 @@
       <c r="J270" t="n">
         <v>2109.928571428572</v>
       </c>
-      <c r="K270" t="inlineStr">
+      <c r="K270" t="n">
+        <v>0.2944063514976542</v>
+      </c>
+      <c r="L270" t="n">
+        <v>1.678241693135626</v>
+      </c>
+      <c r="M270" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10474,7 +12098,13 @@
       <c r="J271" t="n">
         <v>2065.615384615385</v>
       </c>
-      <c r="K271" t="inlineStr">
+      <c r="K271" t="n">
+        <v>0.3266842483816831</v>
+      </c>
+      <c r="L271" t="n">
+        <v>1.894218828195956</v>
+      </c>
+      <c r="M271" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10511,7 +12141,13 @@
       <c r="J272" t="n">
         <v>2178</v>
       </c>
-      <c r="K272" t="inlineStr">
+      <c r="K272" t="n">
+        <v>0.3626485925970455</v>
+      </c>
+      <c r="L272" t="n">
+        <v>2.051676642633655</v>
+      </c>
+      <c r="M272" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10548,7 +12184,13 @@
       <c r="J273" t="n">
         <v>2188.307692307692</v>
       </c>
-      <c r="K273" t="inlineStr">
+      <c r="K273" t="n">
+        <v>0.3936897907997491</v>
+      </c>
+      <c r="L273" t="n">
+        <v>2.183183183183182</v>
+      </c>
+      <c r="M273" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10585,7 +12227,13 @@
       <c r="J274" t="n">
         <v>2319.1</v>
       </c>
-      <c r="K274" t="inlineStr">
+      <c r="K274" t="n">
+        <v>0.4660984239305243</v>
+      </c>
+      <c r="L274" t="n">
+        <v>2.256637857198473</v>
+      </c>
+      <c r="M274" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10622,7 +12270,13 @@
       <c r="J275" t="n">
         <v>2084.428571428572</v>
       </c>
-      <c r="K275" t="inlineStr">
+      <c r="K275" t="n">
+        <v>0.4521685363483791</v>
+      </c>
+      <c r="L275" t="n">
+        <v>2.4970035678448</v>
+      </c>
+      <c r="M275" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10659,7 +12313,13 @@
       <c r="J276" t="n">
         <v>2104.666666666667</v>
       </c>
-      <c r="K276" t="inlineStr">
+      <c r="K276" t="n">
+        <v>0.4572492104075801</v>
+      </c>
+      <c r="L276" t="n">
+        <v>2.426037863825882</v>
+      </c>
+      <c r="M276" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10696,7 +12356,13 @@
       <c r="J277" t="n">
         <v>2167.111111111111</v>
       </c>
-      <c r="K277" t="inlineStr">
+      <c r="K277" t="n">
+        <v>0.389133566577485</v>
+      </c>
+      <c r="L277" t="n">
+        <v>2.065184149591506</v>
+      </c>
+      <c r="M277" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10733,7 +12399,13 @@
       <c r="J278" t="n">
         <v>1994.866666666667</v>
       </c>
-      <c r="K278" t="inlineStr">
+      <c r="K278" t="n">
+        <v>0.5140950473210971</v>
+      </c>
+      <c r="L278" t="n">
+        <v>2.756737511616398</v>
+      </c>
+      <c r="M278" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10770,7 +12442,13 @@
       <c r="J279" t="n">
         <v>2132.166666666667</v>
       </c>
-      <c r="K279" t="inlineStr">
+      <c r="K279" t="n">
+        <v>0.4409417641325535</v>
+      </c>
+      <c r="L279" t="n">
+        <v>2.264260131066519</v>
+      </c>
+      <c r="M279" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10807,7 +12485,13 @@
       <c r="J280" t="n">
         <v>2338.722222222222</v>
       </c>
-      <c r="K280" t="inlineStr">
+      <c r="K280" t="n">
+        <v>0.444618157739847</v>
+      </c>
+      <c r="L280" t="n">
+        <v>2.034370450165372</v>
+      </c>
+      <c r="M280" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10844,7 +12528,13 @@
       <c r="J281" t="n">
         <v>2306.076923076923</v>
       </c>
-      <c r="K281" t="inlineStr">
+      <c r="K281" t="n">
+        <v>0.3644788068212974</v>
+      </c>
+      <c r="L281" t="n">
+        <v>1.853933367732579</v>
+      </c>
+      <c r="M281" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10881,7 +12571,13 @@
       <c r="J282" t="n">
         <v>2171.25</v>
       </c>
-      <c r="K282" t="inlineStr">
+      <c r="K282" t="n">
+        <v>0.2886640683307074</v>
+      </c>
+      <c r="L282" t="n">
+        <v>1.591416136347012</v>
+      </c>
+      <c r="M282" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10918,7 +12614,13 @@
       <c r="J283" t="n">
         <v>2065.818181818182</v>
       </c>
-      <c r="K283" t="inlineStr">
+      <c r="K283" t="n">
+        <v>0.4499897632959037</v>
+      </c>
+      <c r="L283" t="n">
+        <v>2.358636971488006</v>
+      </c>
+      <c r="M283" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10955,7 +12657,13 @@
       <c r="J284" t="n">
         <v>2653.928571428572</v>
       </c>
-      <c r="K284" t="inlineStr">
+      <c r="K284" t="n">
+        <v>0.3894928897236384</v>
+      </c>
+      <c r="L284" t="n">
+        <v>1.537584842347877</v>
+      </c>
+      <c r="M284" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -10992,7 +12700,13 @@
       <c r="J285" t="n">
         <v>2159.875</v>
       </c>
-      <c r="K285" t="inlineStr">
+      <c r="K285" t="n">
+        <v>0.5484586049482445</v>
+      </c>
+      <c r="L285" t="n">
+        <v>2.60655679160045</v>
+      </c>
+      <c r="M285" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11029,7 +12743,13 @@
       <c r="J286" t="n">
         <v>2081</v>
       </c>
-      <c r="K286" t="inlineStr">
+      <c r="K286" t="n">
+        <v>0.5933882228837575</v>
+      </c>
+      <c r="L286" t="n">
+        <v>2.777419786767537</v>
+      </c>
+      <c r="M286" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11066,7 +12786,13 @@
       <c r="J287" t="n">
         <v>1336.095238095238</v>
       </c>
-      <c r="K287" t="inlineStr">
+      <c r="K287" t="n">
+        <v>0.1058540617719998</v>
+      </c>
+      <c r="L287" t="n">
+        <v>-2.838088330109598</v>
+      </c>
+      <c r="M287" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11103,7 +12829,13 @@
       <c r="J288" t="n">
         <v>1738.470588235294</v>
       </c>
-      <c r="K288" t="inlineStr">
+      <c r="K288" t="n">
+        <v>0.1995675549322113</v>
+      </c>
+      <c r="L288" t="n">
+        <v>3.947976878612736</v>
+      </c>
+      <c r="M288" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11140,7 +12872,13 @@
       <c r="J289" t="n">
         <v>2201.9</v>
       </c>
-      <c r="K289" t="inlineStr">
+      <c r="K289" t="n">
+        <v>0.5112150286221075</v>
+      </c>
+      <c r="L289" t="n">
+        <v>2.402288398878534</v>
+      </c>
+      <c r="M289" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11177,7 +12915,13 @@
       <c r="J290" t="n">
         <v>2447.071428571428</v>
       </c>
-      <c r="K290" t="inlineStr">
+      <c r="K290" t="n">
+        <v>0.3097708971305433</v>
+      </c>
+      <c r="L290" t="n">
+        <v>1.552177310506499</v>
+      </c>
+      <c r="M290" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11214,7 +12958,13 @@
       <c r="J291" t="n">
         <v>1941.714285714286</v>
       </c>
-      <c r="K291" t="inlineStr">
+      <c r="K291" t="n">
+        <v>0.5783520607213853</v>
+      </c>
+      <c r="L291" t="n">
+        <v>2.797431124731338</v>
+      </c>
+      <c r="M291" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11251,7 +13001,13 @@
       <c r="J292" t="n">
         <v>2211.0625</v>
       </c>
-      <c r="K292" t="inlineStr">
+      <c r="K292" t="n">
+        <v>0.4203914367610175</v>
+      </c>
+      <c r="L292" t="n">
+        <v>2.099982102107477</v>
+      </c>
+      <c r="M292" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11288,7 +13044,13 @@
       <c r="J293" t="n">
         <v>2051.133333333333</v>
       </c>
-      <c r="K293" t="inlineStr">
+      <c r="K293" t="n">
+        <v>0.5084033613445379</v>
+      </c>
+      <c r="L293" t="n">
+        <v>2.479825797361343</v>
+      </c>
+      <c r="M293" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11325,7 +13087,13 @@
       <c r="J294" t="n">
         <v>2271.736842105263</v>
       </c>
-      <c r="K294" t="inlineStr">
+      <c r="K294" t="n">
+        <v>0.4778505289825338</v>
+      </c>
+      <c r="L294" t="n">
+        <v>2.259452346003948</v>
+      </c>
+      <c r="M294" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11362,7 +13130,13 @@
       <c r="J295" t="n">
         <v>2068.444444444444</v>
       </c>
-      <c r="K295" t="inlineStr">
+      <c r="K295" t="n">
+        <v>0.5259791433755476</v>
+      </c>
+      <c r="L295" t="n">
+        <v>2.529705239404837</v>
+      </c>
+      <c r="M295" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -11399,7 +13173,13 @@
       <c r="J296" t="n">
         <v>3039.545454545455</v>
       </c>
-      <c r="K296" t="inlineStr">
+      <c r="K296" t="n">
+        <v>0.1325677478122255</v>
+      </c>
+      <c r="L296" t="n">
+        <v>1.108150001359693</v>
+      </c>
+      <c r="M296" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11436,7 +13216,13 @@
       <c r="J297" t="n">
         <v>2194.875</v>
       </c>
-      <c r="K297" t="inlineStr">
+      <c r="K297" t="n">
+        <v>0.1013567438148444</v>
+      </c>
+      <c r="L297" t="n">
+        <v>1.021491538511035</v>
+      </c>
+      <c r="M297" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11473,7 +13259,13 @@
       <c r="J298" t="n">
         <v>2850.454545454545</v>
       </c>
-      <c r="K298" t="inlineStr">
+      <c r="K298" t="n">
+        <v>0.1729731754832909</v>
+      </c>
+      <c r="L298" t="n">
+        <v>1.589055240061952</v>
+      </c>
+      <c r="M298" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11510,7 +13302,13 @@
       <c r="J299" t="n">
         <v>3359.454545454545</v>
       </c>
-      <c r="K299" t="inlineStr">
+      <c r="K299" t="n">
+        <v>0.1015709359434323</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0.4632394992692379</v>
+      </c>
+      <c r="M299" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11547,7 +13345,13 @@
       <c r="J300" t="n">
         <v>3082.5</v>
       </c>
-      <c r="K300" t="inlineStr">
+      <c r="K300" t="n">
+        <v>0.1430604982206406</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0.7596840627555034</v>
+      </c>
+      <c r="M300" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11584,7 +13388,13 @@
       <c r="J301" t="n">
         <v>2485.5</v>
       </c>
-      <c r="K301" t="inlineStr">
+      <c r="K301" t="n">
+        <v>0.2205298254564006</v>
+      </c>
+      <c r="L301" t="n">
+        <v>2.346554999806134</v>
+      </c>
+      <c r="M301" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11621,7 +13431,13 @@
       <c r="J302" t="n">
         <v>2149.9</v>
       </c>
-      <c r="K302" t="inlineStr">
+      <c r="K302" t="n">
+        <v>0.1519480519480519</v>
+      </c>
+      <c r="L302" t="n">
+        <v>2.99588477366254</v>
+      </c>
+      <c r="M302" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11658,7 +13474,13 @@
       <c r="J303" t="n">
         <v>3067</v>
       </c>
-      <c r="K303" t="inlineStr">
+      <c r="K303" t="n">
+        <v>0.1186223724474489</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0.7035086470713823</v>
+      </c>
+      <c r="M303" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11695,7 +13517,13 @@
       <c r="J304" t="n">
         <v>3714.888888888889</v>
       </c>
-      <c r="K304" t="inlineStr">
+      <c r="K304" t="n">
+        <v>0.1063156539176187</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0.9067373772240883</v>
+      </c>
+      <c r="M304" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11732,7 +13560,13 @@
       <c r="J305" t="n">
         <v>3871.545454545455</v>
       </c>
-      <c r="K305" t="inlineStr">
+      <c r="K305" t="n">
+        <v>0.08088447364204455</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0.5285642486178587</v>
+      </c>
+      <c r="M305" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11769,7 +13603,13 @@
       <c r="J306" t="n">
         <v>3240.555555555556</v>
       </c>
-      <c r="K306" t="inlineStr">
+      <c r="K306" t="n">
+        <v>0.1369956289674259</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0.7940772051334278</v>
+      </c>
+      <c r="M306" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11806,7 +13646,13 @@
       <c r="J307" t="n">
         <v>2892.5</v>
       </c>
-      <c r="K307" t="inlineStr">
+      <c r="K307" t="n">
+        <v>0.1059780431124289</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0.8601066597294472</v>
+      </c>
+      <c r="M307" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11843,7 +13689,13 @@
       <c r="J308" t="n">
         <v>2134.538461538461</v>
       </c>
-      <c r="K308" t="inlineStr">
+      <c r="K308" t="n">
+        <v>0.1295233156783585</v>
+      </c>
+      <c r="L308" t="n">
+        <v>2.883648058052284</v>
+      </c>
+      <c r="M308" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11880,7 +13732,13 @@
       <c r="J309" t="n">
         <v>2747.583333333333</v>
       </c>
-      <c r="K309" t="inlineStr">
+      <c r="K309" t="n">
+        <v>0.1206380518332086</v>
+      </c>
+      <c r="L309" t="n">
+        <v>1.105604388753818</v>
+      </c>
+      <c r="M309" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11917,7 +13775,13 @@
       <c r="J310" t="n">
         <v>3411.333333333333</v>
       </c>
-      <c r="K310" t="inlineStr">
+      <c r="K310" t="n">
+        <v>0.1064095578561271</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0.6135256076255859</v>
+      </c>
+      <c r="M310" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11954,7 +13818,13 @@
       <c r="J311" t="n">
         <v>3673.25</v>
       </c>
-      <c r="K311" t="inlineStr">
+      <c r="K311" t="n">
+        <v>0.1007890567399251</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0.5653023157598374</v>
+      </c>
+      <c r="M311" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -11991,7 +13861,13 @@
       <c r="J312" t="n">
         <v>2626.545454545455</v>
       </c>
-      <c r="K312" t="inlineStr">
+      <c r="K312" t="n">
+        <v>0.06761292126975246</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0.6288817351152732</v>
+      </c>
+      <c r="M312" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12028,7 +13904,13 @@
       <c r="J313" t="n">
         <v>3689.909090909091</v>
       </c>
-      <c r="K313" t="inlineStr">
+      <c r="K313" t="n">
+        <v>0.08755247584846491</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0.4899703734455496</v>
+      </c>
+      <c r="M313" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12065,7 +13947,13 @@
       <c r="J314" t="n">
         <v>3381.947368421052</v>
       </c>
-      <c r="K314" t="inlineStr">
+      <c r="K314" t="n">
+        <v>0.1206642478937366</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0.6473686506292126</v>
+      </c>
+      <c r="M314" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12102,7 +13990,13 @@
       <c r="J315" t="n">
         <v>3633.294117647059</v>
       </c>
-      <c r="K315" t="inlineStr">
+      <c r="K315" t="n">
+        <v>0.1332221646348334</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0.6454359858947353</v>
+      </c>
+      <c r="M315" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12139,7 +14033,13 @@
       <c r="J316" t="n">
         <v>3445.333333333333</v>
       </c>
-      <c r="K316" t="inlineStr">
+      <c r="K316" t="n">
+        <v>0.1137156914516815</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0.6174384939228232</v>
+      </c>
+      <c r="M316" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12176,7 +14076,13 @@
       <c r="J317" t="n">
         <v>3337.454545454545</v>
       </c>
-      <c r="K317" t="inlineStr">
+      <c r="K317" t="n">
+        <v>0.164943462775338</v>
+      </c>
+      <c r="L317" t="n">
+        <v>1.919671603348354</v>
+      </c>
+      <c r="M317" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12213,7 +14119,13 @@
       <c r="J318" t="n">
         <v>2923.333333333333</v>
       </c>
-      <c r="K318" t="inlineStr">
+      <c r="K318" t="n">
+        <v>0.1097573496697355</v>
+      </c>
+      <c r="L318" t="n">
+        <v>1.823194997157477</v>
+      </c>
+      <c r="M318" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12250,7 +14162,13 @@
       <c r="J319" t="n">
         <v>2606.888888888889</v>
       </c>
-      <c r="K319" t="inlineStr">
+      <c r="K319" t="n">
+        <v>0.1723321418000501</v>
+      </c>
+      <c r="L319" t="n">
+        <v>2.839084771192788</v>
+      </c>
+      <c r="M319" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12287,7 +14205,13 @@
       <c r="J320" t="n">
         <v>3681.777777777778</v>
       </c>
-      <c r="K320" t="inlineStr">
+      <c r="K320" t="n">
+        <v>0.1014412298494715</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0.5140328478999411</v>
+      </c>
+      <c r="M320" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12324,7 +14248,13 @@
       <c r="J321" t="n">
         <v>3707.625</v>
       </c>
-      <c r="K321" t="inlineStr">
+      <c r="K321" t="n">
+        <v>0.09988062077198567</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0.7222899316135148</v>
+      </c>
+      <c r="M321" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12361,7 +14291,13 @@
       <c r="J322" t="n">
         <v>3925.888888888889</v>
       </c>
-      <c r="K322" t="inlineStr">
+      <c r="K322" t="n">
+        <v>0.06334638898122588</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0.587376038595552</v>
+      </c>
+      <c r="M322" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12398,7 +14334,13 @@
       <c r="J323" t="n">
         <v>3562.75</v>
       </c>
-      <c r="K323" t="inlineStr">
+      <c r="K323" t="n">
+        <v>0.1177561880583899</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0.6440931424909208</v>
+      </c>
+      <c r="M323" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12435,7 +14377,13 @@
       <c r="J324" t="n">
         <v>3110.818181818182</v>
       </c>
-      <c r="K324" t="inlineStr">
+      <c r="K324" t="n">
+        <v>0.09620365573891812</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0.8770154489644467</v>
+      </c>
+      <c r="M324" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12472,7 +14420,13 @@
       <c r="J325" t="n">
         <v>3536.818181818182</v>
       </c>
-      <c r="K325" t="inlineStr">
+      <c r="K325" t="n">
+        <v>0.09228559777308919</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0.6627365097150433</v>
+      </c>
+      <c r="M325" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12509,7 +14463,13 @@
       <c r="J326" t="n">
         <v>3745.4375</v>
       </c>
-      <c r="K326" t="inlineStr">
+      <c r="K326" t="n">
+        <v>0.1011425049777188</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0.6655851752484051</v>
+      </c>
+      <c r="M326" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12546,7 +14506,13 @@
       <c r="J327" t="n">
         <v>3360.818181818182</v>
       </c>
-      <c r="K327" t="inlineStr">
+      <c r="K327" t="n">
+        <v>0.1080861137826441</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0.6456317115206148</v>
+      </c>
+      <c r="M327" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12583,7 +14549,13 @@
       <c r="J328" t="n">
         <v>2429.111111111111</v>
       </c>
-      <c r="K328" t="inlineStr">
+      <c r="K328" t="n">
+        <v>0.1664015753995304</v>
+      </c>
+      <c r="L328" t="n">
+        <v>2.257037189233615</v>
+      </c>
+      <c r="M328" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12620,7 +14592,13 @@
       <c r="J329" t="n">
         <v>3334.272727272727</v>
       </c>
-      <c r="K329" t="inlineStr">
+      <c r="K329" t="n">
+        <v>0.127444541739638</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0.6694263975929016</v>
+      </c>
+      <c r="M329" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12657,7 +14635,13 @@
       <c r="J330" t="n">
         <v>3271.7</v>
       </c>
-      <c r="K330" t="inlineStr">
+      <c r="K330" t="n">
+        <v>0.1183030303030304</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0.7151929653150957</v>
+      </c>
+      <c r="M330" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12694,7 +14678,13 @@
       <c r="J331" t="n">
         <v>3861.125</v>
       </c>
-      <c r="K331" t="inlineStr">
+      <c r="K331" t="n">
+        <v>0.0830517831511538</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0.4566426264539472</v>
+      </c>
+      <c r="M331" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12731,7 +14721,13 @@
       <c r="J332" t="n">
         <v>4172.777777777777</v>
       </c>
-      <c r="K332" t="inlineStr">
+      <c r="K332" t="n">
+        <v>0.06858664266696665</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0.3132063839989039</v>
+      </c>
+      <c r="M332" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12768,7 +14764,13 @@
       <c r="J333" t="n">
         <v>3555.636363636364</v>
       </c>
-      <c r="K333" t="inlineStr">
+      <c r="K333" t="n">
+        <v>0.100382425721158</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0.3966495726495728</v>
+      </c>
+      <c r="M333" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12805,7 +14807,13 @@
       <c r="J334" t="n">
         <v>3782</v>
       </c>
-      <c r="K334" t="inlineStr">
+      <c r="K334" t="n">
+        <v>0.09525762253956001</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0.41422787253236</v>
+      </c>
+      <c r="M334" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12842,7 +14850,13 @@
       <c r="J335" t="n">
         <v>3637.75</v>
       </c>
-      <c r="K335" t="inlineStr">
+      <c r="K335" t="n">
+        <v>0.0696047569080098</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0.3562392591178156</v>
+      </c>
+      <c r="M335" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12879,7 +14893,13 @@
       <c r="J336" t="n">
         <v>3771.583333333333</v>
       </c>
-      <c r="K336" t="inlineStr">
+      <c r="K336" t="n">
+        <v>0.1112856043110084</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0.5051789932763943</v>
+      </c>
+      <c r="M336" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12916,7 +14936,13 @@
       <c r="J337" t="n">
         <v>3631.888888888889</v>
       </c>
-      <c r="K337" t="inlineStr">
+      <c r="K337" t="n">
+        <v>0.1043253684050611</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0.5392398815399803</v>
+      </c>
+      <c r="M337" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12953,7 +14979,13 @@
       <c r="J338" t="n">
         <v>3662.923076923077</v>
       </c>
-      <c r="K338" t="inlineStr">
+      <c r="K338" t="n">
+        <v>0.09933472289638236</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0.4394729861172516</v>
+      </c>
+      <c r="M338" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -12990,7 +15022,13 @@
       <c r="J339" t="n">
         <v>3448.666666666667</v>
       </c>
-      <c r="K339" t="inlineStr">
+      <c r="K339" t="n">
+        <v>0.09888005699908711</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0.4379338908172924</v>
+      </c>
+      <c r="M339" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13027,7 +15065,13 @@
       <c r="J340" t="n">
         <v>3677.666666666667</v>
       </c>
-      <c r="K340" t="inlineStr">
+      <c r="K340" t="n">
+        <v>0.07568207300361281</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0.4759013728677461</v>
+      </c>
+      <c r="M340" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13064,7 +15108,13 @@
       <c r="J341" t="n">
         <v>3629.571428571428</v>
       </c>
-      <c r="K341" t="inlineStr">
+      <c r="K341" t="n">
+        <v>0.1000664098817904</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0.3729407571677493</v>
+      </c>
+      <c r="M341" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13101,7 +15151,13 @@
       <c r="J342" t="n">
         <v>3395</v>
       </c>
-      <c r="K342" t="inlineStr">
+      <c r="K342" t="n">
+        <v>0.1503141614306428</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0.5356896789306876</v>
+      </c>
+      <c r="M342" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13138,7 +15194,13 @@
       <c r="J343" t="n">
         <v>3713.8</v>
       </c>
-      <c r="K343" t="inlineStr">
+      <c r="K343" t="n">
+        <v>0.08356126151269892</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0.3542915746292208</v>
+      </c>
+      <c r="M343" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13175,7 +15237,13 @@
       <c r="J344" t="n">
         <v>2806.636363636364</v>
       </c>
-      <c r="K344" t="inlineStr">
+      <c r="K344" t="n">
+        <v>0.08455588156841824</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0.8431171397089555</v>
+      </c>
+      <c r="M344" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13212,7 +15280,13 @@
       <c r="J345" t="n">
         <v>2589.090909090909</v>
       </c>
-      <c r="K345" t="inlineStr">
+      <c r="K345" t="n">
+        <v>0.08133797853273453</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0.7857670907746781</v>
+      </c>
+      <c r="M345" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13249,7 +15323,13 @@
       <c r="J346" t="n">
         <v>2959.583333333333</v>
       </c>
-      <c r="K346" t="inlineStr">
+      <c r="K346" t="n">
+        <v>0.0967301718410515</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0.716813923781137</v>
+      </c>
+      <c r="M346" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13286,7 +15366,13 @@
       <c r="J347" t="n">
         <v>3774.25</v>
       </c>
-      <c r="K347" t="inlineStr">
+      <c r="K347" t="n">
+        <v>0.08592035120727501</v>
+      </c>
+      <c r="L347" t="n">
+        <v>-2.745098039215686</v>
+      </c>
+      <c r="M347" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13323,7 +15409,13 @@
       <c r="J348" t="n">
         <v>2242</v>
       </c>
-      <c r="K348" t="inlineStr">
+      <c r="K348" t="n">
+        <v>0.2258697174877422</v>
+      </c>
+      <c r="L348" t="n">
+        <v>2.129898723029502</v>
+      </c>
+      <c r="M348" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13360,7 +15452,13 @@
       <c r="J349" t="n">
         <v>3193.583333333333</v>
       </c>
-      <c r="K349" t="inlineStr">
+      <c r="K349" t="n">
+        <v>0.1061524363776667</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0.8608865710560619</v>
+      </c>
+      <c r="M349" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13397,7 +15495,13 @@
       <c r="J350" t="n">
         <v>3159.6</v>
       </c>
-      <c r="K350" t="inlineStr">
+      <c r="K350" t="n">
+        <v>0.1144006009456056</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0.6277276694791968</v>
+      </c>
+      <c r="M350" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13434,7 +15538,13 @@
       <c r="J351" t="n">
         <v>3264.363636363636</v>
       </c>
-      <c r="K351" t="inlineStr">
+      <c r="K351" t="n">
+        <v>0.0924282947523748</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0.6858370743457792</v>
+      </c>
+      <c r="M351" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13471,7 +15581,13 @@
       <c r="J352" t="n">
         <v>3162.888888888889</v>
       </c>
-      <c r="K352" t="inlineStr">
+      <c r="K352" t="n">
+        <v>0.0725212856780267</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0.6481481481481471</v>
+      </c>
+      <c r="M352" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13508,7 +15624,13 @@
       <c r="J353" t="n">
         <v>2625.2</v>
       </c>
-      <c r="K353" t="inlineStr">
+      <c r="K353" t="n">
+        <v>0.1782419495213229</v>
+      </c>
+      <c r="L353" t="n">
+        <v>3.520412548345497</v>
+      </c>
+      <c r="M353" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13545,7 +15667,13 @@
       <c r="J354" t="n">
         <v>3576.888888888889</v>
       </c>
-      <c r="K354" t="inlineStr">
+      <c r="K354" t="n">
+        <v>0.06887562021697081</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0.3797292284866473</v>
+      </c>
+      <c r="M354" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13582,7 +15710,13 @@
       <c r="J355" t="n">
         <v>3148.333333333333</v>
       </c>
-      <c r="K355" t="inlineStr">
+      <c r="K355" t="n">
+        <v>0.08585785554189866</v>
+      </c>
+      <c r="L355" t="n">
+        <v>1.493522827317318</v>
+      </c>
+      <c r="M355" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13619,7 +15753,13 @@
       <c r="J356" t="n">
         <v>3551.133333333333</v>
       </c>
-      <c r="K356" t="inlineStr">
+      <c r="K356" t="n">
+        <v>0.04379415810772908</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0.4180158588511266</v>
+      </c>
+      <c r="M356" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13656,7 +15796,13 @@
       <c r="J357" t="n">
         <v>3455.727272727273</v>
       </c>
-      <c r="K357" t="inlineStr">
+      <c r="K357" t="n">
+        <v>0.1031184800871476</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0.4000200547207378</v>
+      </c>
+      <c r="M357" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13693,7 +15839,13 @@
       <c r="J358" t="n">
         <v>2683.75</v>
       </c>
-      <c r="K358" t="inlineStr">
+      <c r="K358" t="n">
+        <v>0.1373700983788278</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0.6109796381205936</v>
+      </c>
+      <c r="M358" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13730,7 +15882,13 @@
       <c r="J359" t="n">
         <v>2295.666666666667</v>
       </c>
-      <c r="K359" t="inlineStr">
+      <c r="K359" t="n">
+        <v>0.1654491100948308</v>
+      </c>
+      <c r="L359" t="n">
+        <v>1.733745487739097</v>
+      </c>
+      <c r="M359" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13767,7 +15925,13 @@
       <c r="J360" t="n">
         <v>2631.454545454545</v>
       </c>
-      <c r="K360" t="inlineStr">
+      <c r="K360" t="n">
+        <v>0.1263701752608652</v>
+      </c>
+      <c r="L360" t="n">
+        <v>1.116061842387804</v>
+      </c>
+      <c r="M360" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13804,7 +15968,13 @@
       <c r="J361" t="n">
         <v>3082.166666666667</v>
       </c>
-      <c r="K361" t="inlineStr">
+      <c r="K361" t="n">
+        <v>0.1248628949509961</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0.7970458035956276</v>
+      </c>
+      <c r="M361" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13841,7 +16011,13 @@
       <c r="J362" t="n">
         <v>2334.090909090909</v>
       </c>
-      <c r="K362" t="inlineStr">
+      <c r="K362" t="n">
+        <v>0.1665176861192696</v>
+      </c>
+      <c r="L362" t="n">
+        <v>1.130831936173904</v>
+      </c>
+      <c r="M362" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13878,7 +16054,13 @@
       <c r="J363" t="n">
         <v>3322.333333333333</v>
       </c>
-      <c r="K363" t="inlineStr">
+      <c r="K363" t="n">
+        <v>0.09293913479833563</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0.3123375072023832</v>
+      </c>
+      <c r="M363" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13915,7 +16097,13 @@
       <c r="J364" t="n">
         <v>2670.916666666667</v>
       </c>
-      <c r="K364" t="inlineStr">
+      <c r="K364" t="n">
+        <v>0.06872831064292903</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0.3786884503982621</v>
+      </c>
+      <c r="M364" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13952,7 +16140,13 @@
       <c r="J365" t="n">
         <v>3151.8</v>
       </c>
-      <c r="K365" t="inlineStr">
+      <c r="K365" t="n">
+        <v>0.1009528714911151</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0.5097308309132682</v>
+      </c>
+      <c r="M365" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -13989,7 +16183,13 @@
       <c r="J366" t="n">
         <v>3859.272727272727</v>
       </c>
-      <c r="K366" t="inlineStr">
+      <c r="K366" t="n">
+        <v>0.01685040781572106</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0.8226371061843628</v>
+      </c>
+      <c r="M366" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14026,7 +16226,13 @@
       <c r="J367" t="n">
         <v>2898.9</v>
       </c>
-      <c r="K367" t="inlineStr">
+      <c r="K367" t="n">
+        <v>0.09220840035018425</v>
+      </c>
+      <c r="L367" t="n">
+        <v>1.312829729259666</v>
+      </c>
+      <c r="M367" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14063,7 +16269,13 @@
       <c r="J368" t="n">
         <v>4203.909090909091</v>
       </c>
-      <c r="K368" t="inlineStr">
+      <c r="K368" t="n">
+        <v>0.05077613477525193</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0.75227797881153</v>
+      </c>
+      <c r="M368" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14100,7 +16312,13 @@
       <c r="J369" t="n">
         <v>5328.857142857143</v>
       </c>
-      <c r="K369" t="inlineStr">
+      <c r="K369" t="n">
+        <v>0.1382176140718926</v>
+      </c>
+      <c r="L369" t="n">
+        <v>1.236957071162941</v>
+      </c>
+      <c r="M369" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14137,7 +16355,13 @@
       <c r="J370" t="n">
         <v>3561.75</v>
       </c>
-      <c r="K370" t="inlineStr">
+      <c r="K370" t="n">
+        <v>0.08016274942648141</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0.5601427577654781</v>
+      </c>
+      <c r="M370" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14174,7 +16398,13 @@
       <c r="J371" t="n">
         <v>4034.6</v>
       </c>
-      <c r="K371" t="inlineStr">
+      <c r="K371" t="n">
+        <v>0.05332245624443784</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0.5089004494461553</v>
+      </c>
+      <c r="M371" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14211,7 +16441,13 @@
       <c r="J372" t="n">
         <v>3208.916666666667</v>
       </c>
-      <c r="K372" t="inlineStr">
+      <c r="K372" t="n">
+        <v>0.06362741335291271</v>
+      </c>
+      <c r="L372" t="n">
+        <v>1.114390928220715</v>
+      </c>
+      <c r="M372" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14248,7 +16484,13 @@
       <c r="J373" t="n">
         <v>2720.6</v>
       </c>
-      <c r="K373" t="inlineStr">
+      <c r="K373" t="n">
+        <v>0.03907367255616555</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0.8471694338867785</v>
+      </c>
+      <c r="M373" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14285,7 +16527,13 @@
       <c r="J374" t="n">
         <v>3782.307692307692</v>
       </c>
-      <c r="K374" t="inlineStr">
+      <c r="K374" t="n">
+        <v>0.09170557814931968</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0.7294037778043992</v>
+      </c>
+      <c r="M374" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14322,7 +16570,13 @@
       <c r="J375" t="n">
         <v>3743.7</v>
       </c>
-      <c r="K375" t="inlineStr">
+      <c r="K375" t="n">
+        <v>0.0290364195693163</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0.2418181818181821</v>
+      </c>
+      <c r="M375" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14359,7 +16613,13 @@
       <c r="J376" t="n">
         <v>4304.461538461538</v>
       </c>
-      <c r="K376" t="inlineStr">
+      <c r="K376" t="n">
+        <v>0.03974030511237918</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0.3445838487365253</v>
+      </c>
+      <c r="M376" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14396,7 +16656,13 @@
       <c r="J377" t="n">
         <v>2189.222222222222</v>
       </c>
-      <c r="K377" t="inlineStr">
+      <c r="K377" t="n">
+        <v>0.07667312100776746</v>
+      </c>
+      <c r="L377" t="n">
+        <v>-4.47984395318599</v>
+      </c>
+      <c r="M377" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14433,7 +16699,13 @@
       <c r="J378" t="n">
         <v>3804.5</v>
       </c>
-      <c r="K378" t="inlineStr">
+      <c r="K378" t="n">
+        <v>0.07503538145210822</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0.3506188860051906</v>
+      </c>
+      <c r="M378" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14470,7 +16742,13 @@
       <c r="J379" t="n">
         <v>4163.083333333333</v>
       </c>
-      <c r="K379" t="inlineStr">
+      <c r="K379" t="n">
+        <v>0.04652619055073732</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0.4669285153181454</v>
+      </c>
+      <c r="M379" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14507,7 +16785,13 @@
       <c r="J380" t="n">
         <v>4309.4</v>
       </c>
-      <c r="K380" t="inlineStr">
+      <c r="K380" t="n">
+        <v>0.01692811005788099</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0.4063632702376119</v>
+      </c>
+      <c r="M380" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14544,7 +16828,13 @@
       <c r="J381" t="n">
         <v>2721.666666666667</v>
       </c>
-      <c r="K381" t="inlineStr">
+      <c r="K381" t="n">
+        <v>0.1800074847186994</v>
+      </c>
+      <c r="L381" t="n">
+        <v>1.363035264483627</v>
+      </c>
+      <c r="M381" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14581,7 +16871,13 @@
       <c r="J382" t="n">
         <v>3058.571428571428</v>
       </c>
-      <c r="K382" t="inlineStr">
+      <c r="K382" t="n">
+        <v>0.1125150597984191</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0.7179554488862226</v>
+      </c>
+      <c r="M382" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14618,7 +16914,13 @@
       <c r="J383" t="n">
         <v>2122</v>
       </c>
-      <c r="K383" t="inlineStr">
+      <c r="K383" t="n">
+        <v>0.2728574155373164</v>
+      </c>
+      <c r="L383" t="n">
+        <v>2.388072168392919</v>
+      </c>
+      <c r="M383" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14655,7 +16957,13 @@
       <c r="J384" t="n">
         <v>2523</v>
       </c>
-      <c r="K384" t="inlineStr">
+      <c r="K384" t="n">
+        <v>0.1068753425491748</v>
+      </c>
+      <c r="L384" t="n">
+        <v>0.6433284457478006</v>
+      </c>
+      <c r="M384" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14692,7 +17000,13 @@
       <c r="J385" t="n">
         <v>3589.571428571428</v>
       </c>
-      <c r="K385" t="inlineStr">
+      <c r="K385" t="n">
+        <v>0.07868618742117674</v>
+      </c>
+      <c r="L385" t="n">
+        <v>1.05421686746988</v>
+      </c>
+      <c r="M385" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14729,7 +17043,13 @@
       <c r="J386" t="n">
         <v>1467.375</v>
       </c>
-      <c r="K386" t="inlineStr">
+      <c r="K386" t="n">
+        <v>0.08963424635066426</v>
+      </c>
+      <c r="L386" t="n">
+        <v>-1.288459271484145</v>
+      </c>
+      <c r="M386" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14766,7 +17086,13 @@
       <c r="J387" t="n">
         <v>2682.75</v>
       </c>
-      <c r="K387" t="inlineStr">
+      <c r="K387" t="n">
+        <v>0.1921700223713647</v>
+      </c>
+      <c r="L387" t="n">
+        <v>1.553626333875927</v>
+      </c>
+      <c r="M387" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14803,7 +17129,13 @@
       <c r="J388" t="n">
         <v>2869.076923076923</v>
       </c>
-      <c r="K388" t="inlineStr">
+      <c r="K388" t="n">
+        <v>0.1705271022958837</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0.996388315605652</v>
+      </c>
+      <c r="M388" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14840,7 +17172,13 @@
       <c r="J389" t="n">
         <v>2355.214285714286</v>
       </c>
-      <c r="K389" t="inlineStr">
+      <c r="K389" t="n">
+        <v>0.1788783877235156</v>
+      </c>
+      <c r="L389" t="n">
+        <v>1.380046238662635</v>
+      </c>
+      <c r="M389" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14877,7 +17215,13 @@
       <c r="J390" t="n">
         <v>2371.5</v>
       </c>
-      <c r="K390" t="inlineStr">
+      <c r="K390" t="n">
+        <v>0.08882977609283038</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0.6157084785133567</v>
+      </c>
+      <c r="M390" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14914,7 +17258,13 @@
       <c r="J391" t="n">
         <v>3201.333333333333</v>
       </c>
-      <c r="K391" t="inlineStr">
+      <c r="K391" t="n">
+        <v>0.09737024221453286</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0.5020159132265314</v>
+      </c>
+      <c r="M391" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14951,7 +17301,13 @@
       <c r="J392" t="n">
         <v>2265.571428571428</v>
       </c>
-      <c r="K392" t="inlineStr">
+      <c r="K392" t="n">
+        <v>0.2288367012561442</v>
+      </c>
+      <c r="L392" t="n">
+        <v>2.579301853997684</v>
+      </c>
+      <c r="M392" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -14988,7 +17344,13 @@
       <c r="J393" t="n">
         <v>2827.9</v>
       </c>
-      <c r="K393" t="inlineStr">
+      <c r="K393" t="n">
+        <v>0.1115396978463516</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0.5937036614577392</v>
+      </c>
+      <c r="M393" t="inlineStr">
         <is>
           <t>bangunan</t>
         </is>
@@ -15025,7 +17387,13 @@
       <c r="J394" t="n">
         <v>1704.357142857143</v>
       </c>
-      <c r="K394" t="inlineStr">
+      <c r="K394" t="n">
+        <v>0.4195503451231271</v>
+      </c>
+      <c r="L394" t="n">
+        <v>3.535245415387791</v>
+      </c>
+      <c r="M394" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15062,7 +17430,13 @@
       <c r="J395" t="n">
         <v>1534.666666666667</v>
       </c>
-      <c r="K395" t="inlineStr">
+      <c r="K395" t="n">
+        <v>0.3893926613243357</v>
+      </c>
+      <c r="L395" t="n">
+        <v>4.409552238805965</v>
+      </c>
+      <c r="M395" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15099,7 +17473,13 @@
       <c r="J396" t="n">
         <v>1602.307692307692</v>
       </c>
-      <c r="K396" t="inlineStr">
+      <c r="K396" t="n">
+        <v>0.4257884805463205</v>
+      </c>
+      <c r="L396" t="n">
+        <v>3.267909850762738</v>
+      </c>
+      <c r="M396" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15136,7 +17516,13 @@
       <c r="J397" t="n">
         <v>1959.833333333333</v>
       </c>
-      <c r="K397" t="inlineStr">
+      <c r="K397" t="n">
+        <v>0.4256416198366259</v>
+      </c>
+      <c r="L397" t="n">
+        <v>2.314715630552862</v>
+      </c>
+      <c r="M397" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15173,7 +17559,13 @@
       <c r="J398" t="n">
         <v>2049.782608695652</v>
       </c>
-      <c r="K398" t="inlineStr">
+      <c r="K398" t="n">
+        <v>0.5871609658895838</v>
+      </c>
+      <c r="L398" t="n">
+        <v>2.615636058297847</v>
+      </c>
+      <c r="M398" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15210,7 +17602,13 @@
       <c r="J399" t="n">
         <v>1920.625</v>
       </c>
-      <c r="K399" t="inlineStr">
+      <c r="K399" t="n">
+        <v>0.4973245128807207</v>
+      </c>
+      <c r="L399" t="n">
+        <v>2.477281929011651</v>
+      </c>
+      <c r="M399" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15247,7 +17645,13 @@
       <c r="J400" t="n">
         <v>2133</v>
       </c>
-      <c r="K400" t="inlineStr">
+      <c r="K400" t="n">
+        <v>0.4556374936227447</v>
+      </c>
+      <c r="L400" t="n">
+        <v>2.066144381933856</v>
+      </c>
+      <c r="M400" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15284,7 +17688,13 @@
       <c r="J401" t="n">
         <v>1936.105263157895</v>
       </c>
-      <c r="K401" t="inlineStr">
+      <c r="K401" t="n">
+        <v>0.5894521482155036</v>
+      </c>
+      <c r="L401" t="n">
+        <v>2.802592390956256</v>
+      </c>
+      <c r="M401" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15321,7 +17731,13 @@
       <c r="J402" t="n">
         <v>1986.909090909091</v>
       </c>
-      <c r="K402" t="inlineStr">
+      <c r="K402" t="n">
+        <v>0.609817312391847</v>
+      </c>
+      <c r="L402" t="n">
+        <v>2.83750061464326</v>
+      </c>
+      <c r="M402" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15358,7 +17774,13 @@
       <c r="J403" t="n">
         <v>2403.4</v>
       </c>
-      <c r="K403" t="inlineStr">
+      <c r="K403" t="n">
+        <v>0.4338645740635871</v>
+      </c>
+      <c r="L403" t="n">
+        <v>2.170777966670137</v>
+      </c>
+      <c r="M403" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15395,7 +17817,13 @@
       <c r="J404" t="n">
         <v>1842.818181818182</v>
       </c>
-      <c r="K404" t="inlineStr">
+      <c r="K404" t="n">
+        <v>0.4691773887753787</v>
+      </c>
+      <c r="L404" t="n">
+        <v>2.798774595924104</v>
+      </c>
+      <c r="M404" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15432,7 +17860,13 @@
       <c r="J405" t="n">
         <v>2020.909090909091</v>
       </c>
-      <c r="K405" t="inlineStr">
+      <c r="K405" t="n">
+        <v>0.4607217198131856</v>
+      </c>
+      <c r="L405" t="n">
+        <v>3.027819289573515</v>
+      </c>
+      <c r="M405" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15469,7 +17903,13 @@
       <c r="J406" t="n">
         <v>2211.9</v>
       </c>
-      <c r="K406" t="inlineStr">
+      <c r="K406" t="n">
+        <v>0.3733355595441833</v>
+      </c>
+      <c r="L406" t="n">
+        <v>1.887198531428692</v>
+      </c>
+      <c r="M406" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15506,7 +17946,13 @@
       <c r="J407" t="n">
         <v>2103.185185185185</v>
       </c>
-      <c r="K407" t="inlineStr">
+      <c r="K407" t="n">
+        <v>0.4046798504298216</v>
+      </c>
+      <c r="L407" t="n">
+        <v>2.217176794599938</v>
+      </c>
+      <c r="M407" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15543,7 +17989,13 @@
       <c r="J408" t="n">
         <v>1950.9</v>
       </c>
-      <c r="K408" t="inlineStr">
+      <c r="K408" t="n">
+        <v>0.6389844617092119</v>
+      </c>
+      <c r="L408" t="n">
+        <v>2.805164748157622</v>
+      </c>
+      <c r="M408" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15580,7 +18032,13 @@
       <c r="J409" t="n">
         <v>2276.411764705882</v>
       </c>
-      <c r="K409" t="inlineStr">
+      <c r="K409" t="n">
+        <v>0.3954864028172581</v>
+      </c>
+      <c r="L409" t="n">
+        <v>1.785009349677954</v>
+      </c>
+      <c r="M409" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15617,7 +18075,13 @@
       <c r="J410" t="n">
         <v>1997.333333333333</v>
       </c>
-      <c r="K410" t="inlineStr">
+      <c r="K410" t="n">
+        <v>0.446872025612183</v>
+      </c>
+      <c r="L410" t="n">
+        <v>3.428827512946485</v>
+      </c>
+      <c r="M410" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15654,7 +18118,13 @@
       <c r="J411" t="n">
         <v>1764.4</v>
       </c>
-      <c r="K411" t="inlineStr">
+      <c r="K411" t="n">
+        <v>0.4218725855166117</v>
+      </c>
+      <c r="L411" t="n">
+        <v>3.854081108829571</v>
+      </c>
+      <c r="M411" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15691,7 +18161,13 @@
       <c r="J412" t="n">
         <v>1707.8</v>
       </c>
-      <c r="K412" t="inlineStr">
+      <c r="K412" t="n">
+        <v>0.4982831670046786</v>
+      </c>
+      <c r="L412" t="n">
+        <v>3.335170152142361</v>
+      </c>
+      <c r="M412" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15728,7 +18204,13 @@
       <c r="J413" t="n">
         <v>1667.222222222222</v>
       </c>
-      <c r="K413" t="inlineStr">
+      <c r="K413" t="n">
+        <v>0.489088631518801</v>
+      </c>
+      <c r="L413" t="n">
+        <v>3.34068870275301</v>
+      </c>
+      <c r="M413" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15765,7 +18247,13 @@
       <c r="J414" t="n">
         <v>2086.785714285714</v>
       </c>
-      <c r="K414" t="inlineStr">
+      <c r="K414" t="n">
+        <v>0.3411951570366819</v>
+      </c>
+      <c r="L414" t="n">
+        <v>2.697867298578203</v>
+      </c>
+      <c r="M414" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15802,7 +18290,13 @@
       <c r="J415" t="n">
         <v>1922.272727272727</v>
       </c>
-      <c r="K415" t="inlineStr">
+      <c r="K415" t="n">
+        <v>0.4517896274653032</v>
+      </c>
+      <c r="L415" t="n">
+        <v>2.536291314688757</v>
+      </c>
+      <c r="M415" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15839,7 +18333,13 @@
       <c r="J416" t="n">
         <v>2115.75</v>
       </c>
-      <c r="K416" t="inlineStr">
+      <c r="K416" t="n">
+        <v>0.3641187142710437</v>
+      </c>
+      <c r="L416" t="n">
+        <v>2.65719067722515</v>
+      </c>
+      <c r="M416" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15876,7 +18376,13 @@
       <c r="J417" t="n">
         <v>2539.5</v>
       </c>
-      <c r="K417" t="inlineStr">
+      <c r="K417" t="n">
+        <v>0.431167524043838</v>
+      </c>
+      <c r="L417" t="n">
+        <v>2.20926567916798</v>
+      </c>
+      <c r="M417" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15913,7 +18419,13 @@
       <c r="J418" t="n">
         <v>2493.5</v>
       </c>
-      <c r="K418" t="inlineStr">
+      <c r="K418" t="n">
+        <v>0.4664846026861231</v>
+      </c>
+      <c r="L418" t="n">
+        <v>1.991386810509831</v>
+      </c>
+      <c r="M418" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15950,7 +18462,13 @@
       <c r="J419" t="n">
         <v>2823.25</v>
       </c>
-      <c r="K419" t="inlineStr">
+      <c r="K419" t="n">
+        <v>0.3549054193783833</v>
+      </c>
+      <c r="L419" t="n">
+        <v>1.236892682513213</v>
+      </c>
+      <c r="M419" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -15987,7 +18505,13 @@
       <c r="J420" t="n">
         <v>1625.2</v>
       </c>
-      <c r="K420" t="inlineStr">
+      <c r="K420" t="n">
+        <v>0.3863154571286816</v>
+      </c>
+      <c r="L420" t="n">
+        <v>4.219419675846106</v>
+      </c>
+      <c r="M420" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16024,7 +18548,13 @@
       <c r="J421" t="n">
         <v>1653.333333333333</v>
       </c>
-      <c r="K421" t="inlineStr">
+      <c r="K421" t="n">
+        <v>0.4447458493701269</v>
+      </c>
+      <c r="L421" t="n">
+        <v>4.055086501605716</v>
+      </c>
+      <c r="M421" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16061,7 +18591,13 @@
       <c r="J422" t="n">
         <v>1814.454545454545</v>
       </c>
-      <c r="K422" t="inlineStr">
+      <c r="K422" t="n">
+        <v>0.3864308940119104</v>
+      </c>
+      <c r="L422" t="n">
+        <v>3.368364064838699</v>
+      </c>
+      <c r="M422" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16098,7 +18634,13 @@
       <c r="J423" t="n">
         <v>1548</v>
       </c>
-      <c r="K423" t="inlineStr">
+      <c r="K423" t="n">
+        <v>0.4480648728345006</v>
+      </c>
+      <c r="L423" t="n">
+        <v>3.901906657251074</v>
+      </c>
+      <c r="M423" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16135,7 +18677,13 @@
       <c r="J424" t="n">
         <v>1758.25</v>
       </c>
-      <c r="K424" t="inlineStr">
+      <c r="K424" t="n">
+        <v>0.4512167444206279</v>
+      </c>
+      <c r="L424" t="n">
+        <v>4.187260132921464</v>
+      </c>
+      <c r="M424" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16172,7 +18720,13 @@
       <c r="J425" t="n">
         <v>1888</v>
       </c>
-      <c r="K425" t="inlineStr">
+      <c r="K425" t="n">
+        <v>0.3855120732722731</v>
+      </c>
+      <c r="L425" t="n">
+        <v>6.846055127775907</v>
+      </c>
+      <c r="M425" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16209,7 +18763,13 @@
       <c r="J426" t="n">
         <v>1915.538461538461</v>
       </c>
-      <c r="K426" t="inlineStr">
+      <c r="K426" t="n">
+        <v>0.4357684881684702</v>
+      </c>
+      <c r="L426" t="n">
+        <v>4.164997711146718</v>
+      </c>
+      <c r="M426" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16246,7 +18806,13 @@
       <c r="J427" t="n">
         <v>1620.583333333333</v>
       </c>
-      <c r="K427" t="inlineStr">
+      <c r="K427" t="n">
+        <v>0.3680293184222457</v>
+      </c>
+      <c r="L427" t="n">
+        <v>8.335615266130421</v>
+      </c>
+      <c r="M427" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16283,7 +18849,13 @@
       <c r="J428" t="n">
         <v>2375.307692307692</v>
       </c>
-      <c r="K428" t="inlineStr">
+      <c r="K428" t="n">
+        <v>0.5081831365237207</v>
+      </c>
+      <c r="L428" t="n">
+        <v>2.240688202549058</v>
+      </c>
+      <c r="M428" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16320,7 +18892,13 @@
       <c r="J429" t="n">
         <v>2198.5</v>
       </c>
-      <c r="K429" t="inlineStr">
+      <c r="K429" t="n">
+        <v>0.3148355038268497</v>
+      </c>
+      <c r="L429" t="n">
+        <v>1.849229202170379</v>
+      </c>
+      <c r="M429" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16357,7 +18935,13 @@
       <c r="J430" t="n">
         <v>1625.625</v>
       </c>
-      <c r="K430" t="inlineStr">
+      <c r="K430" t="n">
+        <v>0.4559351115270628</v>
+      </c>
+      <c r="L430" t="n">
+        <v>4.757228882981609</v>
+      </c>
+      <c r="M430" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16394,7 +18978,13 @@
       <c r="J431" t="n">
         <v>1646.6875</v>
       </c>
-      <c r="K431" t="inlineStr">
+      <c r="K431" t="n">
+        <v>0.4220002985115131</v>
+      </c>
+      <c r="L431" t="n">
+        <v>4.389077053344623</v>
+      </c>
+      <c r="M431" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16431,7 +19021,13 @@
       <c r="J432" t="n">
         <v>1804.285714285714</v>
       </c>
-      <c r="K432" t="inlineStr">
+      <c r="K432" t="n">
+        <v>0.4777445747915388</v>
+      </c>
+      <c r="L432" t="n">
+        <v>4.14630002944574</v>
+      </c>
+      <c r="M432" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16468,7 +19064,13 @@
       <c r="J433" t="n">
         <v>1887.2</v>
       </c>
-      <c r="K433" t="inlineStr">
+      <c r="K433" t="n">
+        <v>0.474646623289208</v>
+      </c>
+      <c r="L433" t="n">
+        <v>4.005617268366571</v>
+      </c>
+      <c r="M433" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16505,7 +19107,13 @@
       <c r="J434" t="n">
         <v>1941.444444444444</v>
       </c>
-      <c r="K434" t="inlineStr">
+      <c r="K434" t="n">
+        <v>0.4363104275309702</v>
+      </c>
+      <c r="L434" t="n">
+        <v>3.250975505787455</v>
+      </c>
+      <c r="M434" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16542,7 +19150,13 @@
       <c r="J435" t="n">
         <v>2453.666666666667</v>
       </c>
-      <c r="K435" t="inlineStr">
+      <c r="K435" t="n">
+        <v>0.4863434675431389</v>
+      </c>
+      <c r="L435" t="n">
+        <v>2.577515328874026</v>
+      </c>
+      <c r="M435" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16579,7 +19193,13 @@
       <c r="J436" t="n">
         <v>2228.142857142857</v>
       </c>
-      <c r="K436" t="inlineStr">
+      <c r="K436" t="n">
+        <v>0.5403779884848354</v>
+      </c>
+      <c r="L436" t="n">
+        <v>3.206701214245796</v>
+      </c>
+      <c r="M436" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16616,7 +19236,13 @@
       <c r="J437" t="n">
         <v>1975.75</v>
       </c>
-      <c r="K437" t="inlineStr">
+      <c r="K437" t="n">
+        <v>0.4539797770287788</v>
+      </c>
+      <c r="L437" t="n">
+        <v>3.543230316409125</v>
+      </c>
+      <c r="M437" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16653,7 +19279,13 @@
       <c r="J438" t="n">
         <v>2242.454545454545</v>
       </c>
-      <c r="K438" t="inlineStr">
+      <c r="K438" t="n">
+        <v>0.4955186407030041</v>
+      </c>
+      <c r="L438" t="n">
+        <v>2.930218907534011</v>
+      </c>
+      <c r="M438" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16690,7 +19322,13 @@
       <c r="J439" t="n">
         <v>2210.083333333333</v>
       </c>
-      <c r="K439" t="inlineStr">
+      <c r="K439" t="n">
+        <v>0.4984713635437189</v>
+      </c>
+      <c r="L439" t="n">
+        <v>2.858690231282338</v>
+      </c>
+      <c r="M439" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16727,7 +19365,13 @@
       <c r="J440" t="n">
         <v>2117.428571428572</v>
       </c>
-      <c r="K440" t="inlineStr">
+      <c r="K440" t="n">
+        <v>0.507511307975345</v>
+      </c>
+      <c r="L440" t="n">
+        <v>3.199899518278808</v>
+      </c>
+      <c r="M440" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16764,7 +19408,13 @@
       <c r="J441" t="n">
         <v>2024</v>
       </c>
-      <c r="K441" t="inlineStr">
+      <c r="K441" t="n">
+        <v>0.464041450777202</v>
+      </c>
+      <c r="L441" t="n">
+        <v>3.814165657177468</v>
+      </c>
+      <c r="M441" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16801,7 +19451,13 @@
       <c r="J442" t="n">
         <v>2263</v>
       </c>
-      <c r="K442" t="inlineStr">
+      <c r="K442" t="n">
+        <v>0.5217609138581784</v>
+      </c>
+      <c r="L442" t="n">
+        <v>2.991439897355368</v>
+      </c>
+      <c r="M442" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16838,7 +19494,13 @@
       <c r="J443" t="n">
         <v>1761</v>
       </c>
-      <c r="K443" t="inlineStr">
+      <c r="K443" t="n">
+        <v>0.4894354890501573</v>
+      </c>
+      <c r="L443" t="n">
+        <v>3.438536332257991</v>
+      </c>
+      <c r="M443" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16875,7 +19537,13 @@
       <c r="J444" t="n">
         <v>1758.9</v>
       </c>
-      <c r="K444" t="inlineStr">
+      <c r="K444" t="n">
+        <v>0.4679698586876136</v>
+      </c>
+      <c r="L444" t="n">
+        <v>3.581941129673825</v>
+      </c>
+      <c r="M444" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16912,7 +19580,13 @@
       <c r="J445" t="n">
         <v>1931.428571428571</v>
       </c>
-      <c r="K445" t="inlineStr">
+      <c r="K445" t="n">
+        <v>0.4441961206301907</v>
+      </c>
+      <c r="L445" t="n">
+        <v>3.897119341563786</v>
+      </c>
+      <c r="M445" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16949,7 +19623,13 @@
       <c r="J446" t="n">
         <v>1790.083333333333</v>
       </c>
-      <c r="K446" t="inlineStr">
+      <c r="K446" t="n">
+        <v>0.4911451824305789</v>
+      </c>
+      <c r="L446" t="n">
+        <v>4.401617177042644</v>
+      </c>
+      <c r="M446" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -16986,7 +19666,13 @@
       <c r="J447" t="n">
         <v>1650.1</v>
       </c>
-      <c r="K447" t="inlineStr">
+      <c r="K447" t="n">
+        <v>0.4599968929625601</v>
+      </c>
+      <c r="L447" t="n">
+        <v>6.819830713421989</v>
+      </c>
+      <c r="M447" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17023,7 +19709,13 @@
       <c r="J448" t="n">
         <v>1588.090909090909</v>
       </c>
-      <c r="K448" t="inlineStr">
+      <c r="K448" t="n">
+        <v>0.4708415154845335</v>
+      </c>
+      <c r="L448" t="n">
+        <v>6.020224822629697</v>
+      </c>
+      <c r="M448" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17060,7 +19752,13 @@
       <c r="J449" t="n">
         <v>1783.444444444444</v>
       </c>
-      <c r="K449" t="inlineStr">
+      <c r="K449" t="n">
+        <v>0.5046482361060367</v>
+      </c>
+      <c r="L449" t="n">
+        <v>4.35335317807739</v>
+      </c>
+      <c r="M449" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17097,7 +19795,13 @@
       <c r="J450" t="n">
         <v>1624.714285714286</v>
       </c>
-      <c r="K450" t="inlineStr">
+      <c r="K450" t="n">
+        <v>0.4824380740328416</v>
+      </c>
+      <c r="L450" t="n">
+        <v>4.639970019808339</v>
+      </c>
+      <c r="M450" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17134,7 +19838,13 @@
       <c r="J451" t="n">
         <v>1663.666666666667</v>
       </c>
-      <c r="K451" t="inlineStr">
+      <c r="K451" t="n">
+        <v>0.4805605222670381</v>
+      </c>
+      <c r="L451" t="n">
+        <v>5.094780461999646</v>
+      </c>
+      <c r="M451" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17171,7 +19881,13 @@
       <c r="J452" t="n">
         <v>1726.454545454545</v>
       </c>
-      <c r="K452" t="inlineStr">
+      <c r="K452" t="n">
+        <v>0.4800289205918141</v>
+      </c>
+      <c r="L452" t="n">
+        <v>4.423877007085737</v>
+      </c>
+      <c r="M452" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17208,7 +19924,13 @@
       <c r="J453" t="n">
         <v>1582.8</v>
       </c>
-      <c r="K453" t="inlineStr">
+      <c r="K453" t="n">
+        <v>0.4580227422610365</v>
+      </c>
+      <c r="L453" t="n">
+        <v>6.200021641508416</v>
+      </c>
+      <c r="M453" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17245,7 +19967,13 @@
       <c r="J454" t="n">
         <v>1676.9</v>
       </c>
-      <c r="K454" t="inlineStr">
+      <c r="K454" t="n">
+        <v>0.4881683072765875</v>
+      </c>
+      <c r="L454" t="n">
+        <v>4.224486387172206</v>
+      </c>
+      <c r="M454" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17282,7 +20010,13 @@
       <c r="J455" t="n">
         <v>1597.5</v>
       </c>
-      <c r="K455" t="inlineStr">
+      <c r="K455" t="n">
+        <v>0.4472775785875094</v>
+      </c>
+      <c r="L455" t="n">
+        <v>5.720226923733148</v>
+      </c>
+      <c r="M455" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17319,7 +20053,13 @@
       <c r="J456" t="n">
         <v>1738</v>
       </c>
-      <c r="K456" t="inlineStr">
+      <c r="K456" t="n">
+        <v>0.4832227270772715</v>
+      </c>
+      <c r="L456" t="n">
+        <v>4.182235454658233</v>
+      </c>
+      <c r="M456" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17356,7 +20096,13 @@
       <c r="J457" t="n">
         <v>1696.5</v>
       </c>
-      <c r="K457" t="inlineStr">
+      <c r="K457" t="n">
+        <v>0.4812431997729316</v>
+      </c>
+      <c r="L457" t="n">
+        <v>5.245977722772277</v>
+      </c>
+      <c r="M457" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17393,7 +20139,13 @@
       <c r="J458" t="n">
         <v>1690.7</v>
       </c>
-      <c r="K458" t="inlineStr">
+      <c r="K458" t="n">
+        <v>0.4653514367870812</v>
+      </c>
+      <c r="L458" t="n">
+        <v>5.665631085968658</v>
+      </c>
+      <c r="M458" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17430,7 +20182,13 @@
       <c r="J459" t="n">
         <v>1627.7</v>
       </c>
-      <c r="K459" t="inlineStr">
+      <c r="K459" t="n">
+        <v>0.4807165269889185</v>
+      </c>
+      <c r="L459" t="n">
+        <v>4.67694566813509</v>
+      </c>
+      <c r="M459" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17467,7 +20225,13 @@
       <c r="J460" t="n">
         <v>1556.111111111111</v>
       </c>
-      <c r="K460" t="inlineStr">
+      <c r="K460" t="n">
+        <v>0.4580832878705219</v>
+      </c>
+      <c r="L460" t="n">
+        <v>5.680780289789697</v>
+      </c>
+      <c r="M460" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17504,7 +20268,13 @@
       <c r="J461" t="n">
         <v>1700</v>
       </c>
-      <c r="K461" t="inlineStr">
+      <c r="K461" t="n">
+        <v>0.4932085650855793</v>
+      </c>
+      <c r="L461" t="n">
+        <v>4.457028216412115</v>
+      </c>
+      <c r="M461" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17541,7 +20311,13 @@
       <c r="J462" t="n">
         <v>1628.75</v>
       </c>
-      <c r="K462" t="inlineStr">
+      <c r="K462" t="n">
+        <v>0.4789098094289401</v>
+      </c>
+      <c r="L462" t="n">
+        <v>4.636973089207223</v>
+      </c>
+      <c r="M462" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17578,7 +20354,13 @@
       <c r="J463" t="n">
         <v>1772.75</v>
       </c>
-      <c r="K463" t="inlineStr">
+      <c r="K463" t="n">
+        <v>0.4423553924000397</v>
+      </c>
+      <c r="L463" t="n">
+        <v>3.765943069516006</v>
+      </c>
+      <c r="M463" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17615,7 +20397,13 @@
       <c r="J464" t="n">
         <v>1663.454545454545</v>
       </c>
-      <c r="K464" t="inlineStr">
+      <c r="K464" t="n">
+        <v>0.4504719949653869</v>
+      </c>
+      <c r="L464" t="n">
+        <v>5.251760858628207</v>
+      </c>
+      <c r="M464" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17652,7 +20440,13 @@
       <c r="J465" t="n">
         <v>1638.555555555556</v>
       </c>
-      <c r="K465" t="inlineStr">
+      <c r="K465" t="n">
+        <v>0.4935781398155331</v>
+      </c>
+      <c r="L465" t="n">
+        <v>4.518267182198374</v>
+      </c>
+      <c r="M465" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17689,7 +20483,13 @@
       <c r="J466" t="n">
         <v>1790.7</v>
       </c>
-      <c r="K466" t="inlineStr">
+      <c r="K466" t="n">
+        <v>0.4740563784042045</v>
+      </c>
+      <c r="L466" t="n">
+        <v>4.040560351848836</v>
+      </c>
+      <c r="M466" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17726,7 +20526,13 @@
       <c r="J467" t="n">
         <v>1885.857142857143</v>
       </c>
-      <c r="K467" t="inlineStr">
+      <c r="K467" t="n">
+        <v>0.4429938596005974</v>
+      </c>
+      <c r="L467" t="n">
+        <v>3.305403062698642</v>
+      </c>
+      <c r="M467" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17763,7 +20569,13 @@
       <c r="J468" t="n">
         <v>1799.625</v>
       </c>
-      <c r="K468" t="inlineStr">
+      <c r="K468" t="n">
+        <v>0.4848364948213662</v>
+      </c>
+      <c r="L468" t="n">
+        <v>4.292219566471607</v>
+      </c>
+      <c r="M468" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17800,7 +20612,13 @@
       <c r="J469" t="n">
         <v>1617.153846153846</v>
       </c>
-      <c r="K469" t="inlineStr">
+      <c r="K469" t="n">
+        <v>0.4852408696040887</v>
+      </c>
+      <c r="L469" t="n">
+        <v>4.800548381390421</v>
+      </c>
+      <c r="M469" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17837,7 +20655,13 @@
       <c r="J470" t="n">
         <v>1639.2</v>
       </c>
-      <c r="K470" t="inlineStr">
+      <c r="K470" t="n">
+        <v>0.460743519115435</v>
+      </c>
+      <c r="L470" t="n">
+        <v>5.58409887299933</v>
+      </c>
+      <c r="M470" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17874,7 +20698,13 @@
       <c r="J471" t="n">
         <v>1798.222222222222</v>
       </c>
-      <c r="K471" t="inlineStr">
+      <c r="K471" t="n">
+        <v>0.5200605601816807</v>
+      </c>
+      <c r="L471" t="n">
+        <v>4.726847392321449</v>
+      </c>
+      <c r="M471" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17911,7 +20741,13 @@
       <c r="J472" t="n">
         <v>1855.2</v>
       </c>
-      <c r="K472" t="inlineStr">
+      <c r="K472" t="n">
+        <v>0.5300466446494841</v>
+      </c>
+      <c r="L472" t="n">
+        <v>4.182248012035248</v>
+      </c>
+      <c r="M472" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17948,7 +20784,13 @@
       <c r="J473" t="n">
         <v>1775.8</v>
       </c>
-      <c r="K473" t="inlineStr">
+      <c r="K473" t="n">
+        <v>0.5213687298950123</v>
+      </c>
+      <c r="L473" t="n">
+        <v>4.397960400763361</v>
+      </c>
+      <c r="M473" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -17985,7 +20827,13 @@
       <c r="J474" t="n">
         <v>1678.857142857143</v>
       </c>
-      <c r="K474" t="inlineStr">
+      <c r="K474" t="n">
+        <v>0.4585750818049331</v>
+      </c>
+      <c r="L474" t="n">
+        <v>5.956922417488212</v>
+      </c>
+      <c r="M474" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18022,7 +20870,13 @@
       <c r="J475" t="n">
         <v>1753.625</v>
       </c>
-      <c r="K475" t="inlineStr">
+      <c r="K475" t="n">
+        <v>0.5118387792490898</v>
+      </c>
+      <c r="L475" t="n">
+        <v>3.987101669195751</v>
+      </c>
+      <c r="M475" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18059,7 +20913,13 @@
       <c r="J476" t="n">
         <v>1685.272727272727</v>
       </c>
-      <c r="K476" t="inlineStr">
+      <c r="K476" t="n">
+        <v>0.5193377663183607</v>
+      </c>
+      <c r="L476" t="n">
+        <v>4.13495043353772</v>
+      </c>
+      <c r="M476" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18096,7 +20956,13 @@
       <c r="J477" t="n">
         <v>1923.333333333333</v>
       </c>
-      <c r="K477" t="inlineStr">
+      <c r="K477" t="n">
+        <v>0.4961022261512498</v>
+      </c>
+      <c r="L477" t="n">
+        <v>3.3615596155417</v>
+      </c>
+      <c r="M477" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18133,7 +20999,13 @@
       <c r="J478" t="n">
         <v>1593.538461538461</v>
       </c>
-      <c r="K478" t="inlineStr">
+      <c r="K478" t="n">
+        <v>0.4828768717511056</v>
+      </c>
+      <c r="L478" t="n">
+        <v>4.330985915492958</v>
+      </c>
+      <c r="M478" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18170,7 +21042,13 @@
       <c r="J479" t="n">
         <v>1671.285714285714</v>
       </c>
-      <c r="K479" t="inlineStr">
+      <c r="K479" t="n">
+        <v>0.4801748181373817</v>
+      </c>
+      <c r="L479" t="n">
+        <v>3.718631009374509</v>
+      </c>
+      <c r="M479" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18207,7 +21085,13 @@
       <c r="J480" t="n">
         <v>1905.333333333333</v>
       </c>
-      <c r="K480" t="inlineStr">
+      <c r="K480" t="n">
+        <v>0.4836741637628618</v>
+      </c>
+      <c r="L480" t="n">
+        <v>3.18925902430722</v>
+      </c>
+      <c r="M480" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18244,7 +21128,13 @@
       <c r="J481" t="n">
         <v>2114.769230769231</v>
       </c>
-      <c r="K481" t="inlineStr">
+      <c r="K481" t="n">
+        <v>0.2277094542659493</v>
+      </c>
+      <c r="L481" t="n">
+        <v>2.620039061060549</v>
+      </c>
+      <c r="M481" t="inlineStr">
         <is>
           <t>area_hijau</t>
         </is>
@@ -18281,7 +21171,13 @@
       <c r="J482" t="n">
         <v>1254.117647058823</v>
       </c>
-      <c r="K482" t="inlineStr">
+      <c r="K482" t="n">
+        <v>0.01072636638775143</v>
+      </c>
+      <c r="L482" t="n">
+        <v>-0.08072620084410781</v>
+      </c>
+      <c r="M482" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18318,7 +21214,13 @@
       <c r="J483" t="n">
         <v>1265.7</v>
       </c>
-      <c r="K483" t="inlineStr">
+      <c r="K483" t="n">
+        <v>0.00235039546336366</v>
+      </c>
+      <c r="L483" t="n">
+        <v>-0.01712003043560953</v>
+      </c>
+      <c r="M483" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18355,7 +21257,13 @@
       <c r="J484" t="n">
         <v>1408.111111111111</v>
       </c>
-      <c r="K484" t="inlineStr">
+      <c r="K484" t="n">
+        <v>0.01502007245667286</v>
+      </c>
+      <c r="L484" t="n">
+        <v>-0.1509307725609037</v>
+      </c>
+      <c r="M484" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18392,7 +21300,13 @@
       <c r="J485" t="n">
         <v>1561.142857142857</v>
       </c>
-      <c r="K485" t="inlineStr">
+      <c r="K485" t="n">
+        <v>0.4828098866381714</v>
+      </c>
+      <c r="L485" t="n">
+        <v>3.172677684604737</v>
+      </c>
+      <c r="M485" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18429,7 +21343,13 @@
       <c r="J486" t="n">
         <v>2194.666666666667</v>
       </c>
-      <c r="K486" t="inlineStr">
+      <c r="K486" t="n">
+        <v>0.2582367352908911</v>
+      </c>
+      <c r="L486" t="n">
+        <v>1.759693013056913</v>
+      </c>
+      <c r="M486" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18466,7 +21386,13 @@
       <c r="J487" t="n">
         <v>1898.545454545455</v>
       </c>
-      <c r="K487" t="inlineStr">
+      <c r="K487" t="n">
+        <v>0.464240713673706</v>
+      </c>
+      <c r="L487" t="n">
+        <v>2.350424442440841</v>
+      </c>
+      <c r="M487" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18503,7 +21429,13 @@
       <c r="J488" t="n">
         <v>1480.166666666667</v>
       </c>
-      <c r="K488" t="inlineStr">
+      <c r="K488" t="n">
+        <v>0.1058703939008895</v>
+      </c>
+      <c r="L488" t="n">
+        <v>2.710827693909428</v>
+      </c>
+      <c r="M488" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18540,7 +21472,13 @@
       <c r="J489" t="n">
         <v>2184.9</v>
       </c>
-      <c r="K489" t="inlineStr">
+      <c r="K489" t="n">
+        <v>0.3590408044865597</v>
+      </c>
+      <c r="L489" t="n">
+        <v>1.808494058055718</v>
+      </c>
+      <c r="M489" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18577,7 +21515,13 @@
       <c r="J490" t="n">
         <v>2239.285714285714</v>
       </c>
-      <c r="K490" t="inlineStr">
+      <c r="K490" t="n">
+        <v>0.3457410492394243</v>
+      </c>
+      <c r="L490" t="n">
+        <v>1.948411721250924</v>
+      </c>
+      <c r="M490" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18614,7 +21558,13 @@
       <c r="J491" t="n">
         <v>1300.875</v>
       </c>
-      <c r="K491" t="inlineStr">
+      <c r="K491" t="n">
+        <v>-0.0001711010351612627</v>
+      </c>
+      <c r="L491" t="n">
+        <v>0.01202645820805773</v>
+      </c>
+      <c r="M491" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18651,7 +21601,13 @@
       <c r="J492" t="n">
         <v>1321.285714285714</v>
       </c>
-      <c r="K492" t="inlineStr">
+      <c r="K492" t="n">
+        <v>0.002872304172143484</v>
+      </c>
+      <c r="L492" t="n">
+        <v>-0.1303003533568885</v>
+      </c>
+      <c r="M492" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18688,7 +21644,13 @@
       <c r="J493" t="n">
         <v>1526.2</v>
       </c>
-      <c r="K493" t="inlineStr">
+      <c r="K493" t="n">
+        <v>0.1221362820927565</v>
+      </c>
+      <c r="L493" t="n">
+        <v>2.883627273989729</v>
+      </c>
+      <c r="M493" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18725,7 +21687,13 @@
       <c r="J494" t="n">
         <v>1961.25</v>
       </c>
-      <c r="K494" t="inlineStr">
+      <c r="K494" t="n">
+        <v>0.3439506807089648</v>
+      </c>
+      <c r="L494" t="n">
+        <v>1.989244116947944</v>
+      </c>
+      <c r="M494" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18762,7 +21730,13 @@
       <c r="J495" t="n">
         <v>1321.857142857143</v>
       </c>
-      <c r="K495" t="inlineStr">
+      <c r="K495" t="n">
+        <v>0.0096348633825782</v>
+      </c>
+      <c r="L495" t="n">
+        <v>11.20689655172321</v>
+      </c>
+      <c r="M495" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18799,7 +21773,13 @@
       <c r="J496" t="n">
         <v>1429.090909090909</v>
       </c>
-      <c r="K496" t="inlineStr">
+      <c r="K496" t="n">
+        <v>0.04958844765342964</v>
+      </c>
+      <c r="L496" t="n">
+        <v>1.181367827163899</v>
+      </c>
+      <c r="M496" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18836,7 +21816,13 @@
       <c r="J497" t="n">
         <v>1315.5</v>
       </c>
-      <c r="K497" t="inlineStr">
+      <c r="K497" t="n">
+        <v>0.03551649078334667</v>
+      </c>
+      <c r="L497" t="n">
+        <v>3.990712074303445</v>
+      </c>
+      <c r="M497" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18873,7 +21859,13 @@
       <c r="J498" t="n">
         <v>1409.428571428571</v>
       </c>
-      <c r="K498" t="inlineStr">
+      <c r="K498" t="n">
+        <v>0.08800346470333476</v>
+      </c>
+      <c r="L498" t="n">
+        <v>5.465303926842409</v>
+      </c>
+      <c r="M498" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18910,7 +21902,13 @@
       <c r="J499" t="n">
         <v>1482.428571428571</v>
       </c>
-      <c r="K499" t="inlineStr">
+      <c r="K499" t="n">
+        <v>0.07735009592228249</v>
+      </c>
+      <c r="L499" t="n">
+        <v>0.6572102379135741</v>
+      </c>
+      <c r="M499" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18947,7 +21945,13 @@
       <c r="J500" t="n">
         <v>1812.333333333333</v>
       </c>
-      <c r="K500" t="inlineStr">
+      <c r="K500" t="n">
+        <v>0.6232352149551004</v>
+      </c>
+      <c r="L500" t="n">
+        <v>2.847512576858581</v>
+      </c>
+      <c r="M500" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -18984,7 +21988,13 @@
       <c r="J501" t="n">
         <v>1828.666666666667</v>
       </c>
-      <c r="K501" t="inlineStr">
+      <c r="K501" t="n">
+        <v>0.6200012270691454</v>
+      </c>
+      <c r="L501" t="n">
+        <v>2.710268843735919</v>
+      </c>
+      <c r="M501" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19021,7 +22031,13 @@
       <c r="J502" t="n">
         <v>1315.3125</v>
       </c>
-      <c r="K502" t="inlineStr">
+      <c r="K502" t="n">
+        <v>0.08215743561053439</v>
+      </c>
+      <c r="L502" t="n">
+        <v>-1.038447435964591</v>
+      </c>
+      <c r="M502" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19058,7 +22074,13 @@
       <c r="J503" t="n">
         <v>1479.153846153846</v>
       </c>
-      <c r="K503" t="inlineStr">
+      <c r="K503" t="n">
+        <v>0.07128237073952126</v>
+      </c>
+      <c r="L503" t="n">
+        <v>-0.8346793101651658</v>
+      </c>
+      <c r="M503" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19095,7 +22117,13 @@
       <c r="J504" t="n">
         <v>1491.285714285714</v>
       </c>
-      <c r="K504" t="inlineStr">
+      <c r="K504" t="n">
+        <v>0.01515773996151105</v>
+      </c>
+      <c r="L504" t="n">
+        <v>-0.1455081368316178</v>
+      </c>
+      <c r="M504" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19132,7 +22160,13 @@
       <c r="J505" t="n">
         <v>1306.8</v>
       </c>
-      <c r="K505" t="inlineStr">
+      <c r="K505" t="n">
+        <v>0.02408347030658189</v>
+      </c>
+      <c r="L505" t="n">
+        <v>-0.2051375700024348</v>
+      </c>
+      <c r="M505" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19169,7 +22203,13 @@
       <c r="J506" t="n">
         <v>1795.25</v>
       </c>
-      <c r="K506" t="inlineStr">
+      <c r="K506" t="n">
+        <v>0.3812378167641325</v>
+      </c>
+      <c r="L506" t="n">
+        <v>2.853443244820543</v>
+      </c>
+      <c r="M506" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19206,7 +22246,13 @@
       <c r="J507" t="n">
         <v>1300.777777777778</v>
       </c>
-      <c r="K507" t="inlineStr">
+      <c r="K507" t="n">
+        <v>0.0495808201509806</v>
+      </c>
+      <c r="L507" t="n">
+        <v>-0.4869597615499258</v>
+      </c>
+      <c r="M507" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19243,7 +22289,13 @@
       <c r="J508" t="n">
         <v>2094.466666666667</v>
       </c>
-      <c r="K508" t="inlineStr">
+      <c r="K508" t="n">
+        <v>0.5750662563465329</v>
+      </c>
+      <c r="L508" t="n">
+        <v>3.099693363892291</v>
+      </c>
+      <c r="M508" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19280,7 +22332,13 @@
       <c r="J509" t="n">
         <v>1542.230769230769</v>
       </c>
-      <c r="K509" t="inlineStr">
+      <c r="K509" t="n">
+        <v>0.02438037885086402</v>
+      </c>
+      <c r="L509" t="n">
+        <v>-0.2482496682377709</v>
+      </c>
+      <c r="M509" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19317,7 +22375,13 @@
       <c r="J510" t="n">
         <v>1240.133333333333</v>
       </c>
-      <c r="K510" t="inlineStr">
+      <c r="K510" t="n">
+        <v>0.1004239968141676</v>
+      </c>
+      <c r="L510" t="n">
+        <v>-1.323801877470355</v>
+      </c>
+      <c r="M510" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19354,7 +22418,13 @@
       <c r="J511" t="n">
         <v>1500.071428571429</v>
       </c>
-      <c r="K511" t="inlineStr">
+      <c r="K511" t="n">
+        <v>0.01729924004590039</v>
+      </c>
+      <c r="L511" t="n">
+        <v>-0.1717688537277503</v>
+      </c>
+      <c r="M511" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19391,7 +22461,13 @@
       <c r="J512" t="n">
         <v>1206.5</v>
       </c>
-      <c r="K512" t="inlineStr">
+      <c r="K512" t="n">
+        <v>0.03874425001185564</v>
+      </c>
+      <c r="L512" t="n">
+        <v>-0.3492945703292005</v>
+      </c>
+      <c r="M512" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19428,7 +22504,13 @@
       <c r="J513" t="n">
         <v>1270.5</v>
       </c>
-      <c r="K513" t="inlineStr">
+      <c r="K513" t="n">
+        <v>0.006936621805893164</v>
+      </c>
+      <c r="L513" t="n">
+        <v>-0.0479154721926448</v>
+      </c>
+      <c r="M513" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19465,7 +22547,13 @@
       <c r="J514" t="n">
         <v>1322.733333333333</v>
       </c>
-      <c r="K514" t="inlineStr">
+      <c r="K514" t="n">
+        <v>0.06510936504565722</v>
+      </c>
+      <c r="L514" t="n">
+        <v>-0.7040183696900104</v>
+      </c>
+      <c r="M514" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19502,7 +22590,13 @@
       <c r="J515" t="n">
         <v>1915.454545454545</v>
       </c>
-      <c r="K515" t="inlineStr">
+      <c r="K515" t="n">
+        <v>0.5578547297297296</v>
+      </c>
+      <c r="L515" t="n">
+        <v>3.074619454745762</v>
+      </c>
+      <c r="M515" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19539,7 +22633,13 @@
       <c r="J516" t="n">
         <v>2119</v>
       </c>
-      <c r="K516" t="inlineStr">
+      <c r="K516" t="n">
+        <v>0.5821855975556121</v>
+      </c>
+      <c r="L516" t="n">
+        <v>2.824114621931774</v>
+      </c>
+      <c r="M516" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19576,7 +22676,13 @@
       <c r="J517" t="n">
         <v>2191.384615384615</v>
       </c>
-      <c r="K517" t="inlineStr">
+      <c r="K517" t="n">
+        <v>0.4641284707199756</v>
+      </c>
+      <c r="L517" t="n">
+        <v>2.539689171122995</v>
+      </c>
+      <c r="M517" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19613,7 +22719,13 @@
       <c r="J518" t="n">
         <v>2156.444444444444</v>
       </c>
-      <c r="K518" t="inlineStr">
+      <c r="K518" t="n">
+        <v>0.5425041736227045</v>
+      </c>
+      <c r="L518" t="n">
+        <v>2.60852812740817</v>
+      </c>
+      <c r="M518" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19650,7 +22762,13 @@
       <c r="J519" t="n">
         <v>2106.6</v>
       </c>
-      <c r="K519" t="inlineStr">
+      <c r="K519" t="n">
+        <v>0.4998659474299441</v>
+      </c>
+      <c r="L519" t="n">
+        <v>2.626149373478769</v>
+      </c>
+      <c r="M519" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19687,7 +22805,13 @@
       <c r="J520" t="n">
         <v>2270.875</v>
       </c>
-      <c r="K520" t="inlineStr">
+      <c r="K520" t="n">
+        <v>0.3991885617582608</v>
+      </c>
+      <c r="L520" t="n">
+        <v>1.909877927254609</v>
+      </c>
+      <c r="M520" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19724,7 +22848,13 @@
       <c r="J521" t="n">
         <v>1956</v>
       </c>
-      <c r="K521" t="inlineStr">
+      <c r="K521" t="n">
+        <v>0.5897117115662514</v>
+      </c>
+      <c r="L521" t="n">
+        <v>2.791697559409613</v>
+      </c>
+      <c r="M521" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19761,7 +22891,13 @@
       <c r="J522" t="n">
         <v>2226.461538461539</v>
       </c>
-      <c r="K522" t="inlineStr">
+      <c r="K522" t="n">
+        <v>0.4534059334388277</v>
+      </c>
+      <c r="L522" t="n">
+        <v>2.428685843956483</v>
+      </c>
+      <c r="M522" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19798,7 +22934,13 @@
       <c r="J523" t="n">
         <v>1593.5</v>
       </c>
-      <c r="K523" t="inlineStr">
+      <c r="K523" t="n">
+        <v>0.04095280203382338</v>
+      </c>
+      <c r="L523" t="n">
+        <v>-0.4759457897103215</v>
+      </c>
+      <c r="M523" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19835,7 +22977,13 @@
       <c r="J524" t="n">
         <v>2059.181818181818</v>
       </c>
-      <c r="K524" t="inlineStr">
+      <c r="K524" t="n">
+        <v>0.5738659043792895</v>
+      </c>
+      <c r="L524" t="n">
+        <v>2.69632399206234</v>
+      </c>
+      <c r="M524" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19872,7 +23020,13 @@
       <c r="J525" t="n">
         <v>2141.777777777778</v>
       </c>
-      <c r="K525" t="inlineStr">
+      <c r="K525" t="n">
+        <v>0.4916010683159966</v>
+      </c>
+      <c r="L525" t="n">
+        <v>2.459301712316727</v>
+      </c>
+      <c r="M525" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19909,7 +23063,13 @@
       <c r="J526" t="n">
         <v>2191.555555555556</v>
       </c>
-      <c r="K526" t="inlineStr">
+      <c r="K526" t="n">
+        <v>0.312390158172232</v>
+      </c>
+      <c r="L526" t="n">
+        <v>1.771388708954107</v>
+      </c>
+      <c r="M526" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19946,7 +23106,13 @@
       <c r="J527" t="n">
         <v>2098.5</v>
       </c>
-      <c r="K527" t="inlineStr">
+      <c r="K527" t="n">
+        <v>0.5406227067826817</v>
+      </c>
+      <c r="L527" t="n">
+        <v>2.57938436035212</v>
+      </c>
+      <c r="M527" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -19983,7 +23149,13 @@
       <c r="J528" t="n">
         <v>2201.3</v>
       </c>
-      <c r="K528" t="inlineStr">
+      <c r="K528" t="n">
+        <v>0.4849265312861153</v>
+      </c>
+      <c r="L528" t="n">
+        <v>2.313666797951949</v>
+      </c>
+      <c r="M528" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20020,7 +23192,13 @@
       <c r="J529" t="n">
         <v>1839.2</v>
       </c>
-      <c r="K529" t="inlineStr">
+      <c r="K529" t="n">
+        <v>0.2289702517162472</v>
+      </c>
+      <c r="L529" t="n">
+        <v>1.676608579088472</v>
+      </c>
+      <c r="M529" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20057,7 +23235,13 @@
       <c r="J530" t="n">
         <v>1572.333333333333</v>
       </c>
-      <c r="K530" t="inlineStr">
+      <c r="K530" t="n">
+        <v>0.3193518613475541</v>
+      </c>
+      <c r="L530" t="n">
+        <v>5.694952450621789</v>
+      </c>
+      <c r="M530" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20094,7 +23278,13 @@
       <c r="J531" t="n">
         <v>1678.272727272727</v>
       </c>
-      <c r="K531" t="inlineStr">
+      <c r="K531" t="n">
+        <v>0.1975084937712344</v>
+      </c>
+      <c r="L531" t="n">
+        <v>2.409904930355959</v>
+      </c>
+      <c r="M531" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20131,7 +23321,13 @@
       <c r="J532" t="n">
         <v>2118.777777777778</v>
       </c>
-      <c r="K532" t="inlineStr">
+      <c r="K532" t="n">
+        <v>0.5098913543546731</v>
+      </c>
+      <c r="L532" t="n">
+        <v>2.651161079012255</v>
+      </c>
+      <c r="M532" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20168,7 +23364,13 @@
       <c r="J533" t="n">
         <v>2134.083333333333</v>
       </c>
-      <c r="K533" t="inlineStr">
+      <c r="K533" t="n">
+        <v>0.3944305571035076</v>
+      </c>
+      <c r="L533" t="n">
+        <v>2.096989909934313</v>
+      </c>
+      <c r="M533" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20205,7 +23407,13 @@
       <c r="J534" t="n">
         <v>2045.8</v>
       </c>
-      <c r="K534" t="inlineStr">
+      <c r="K534" t="n">
+        <v>0.5206652889807347</v>
+      </c>
+      <c r="L534" t="n">
+        <v>2.681118377014574</v>
+      </c>
+      <c r="M534" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20242,7 +23450,13 @@
       <c r="J535" t="n">
         <v>2032.285714285714</v>
       </c>
-      <c r="K535" t="inlineStr">
+      <c r="K535" t="n">
+        <v>0.5377660923914297</v>
+      </c>
+      <c r="L535" t="n">
+        <v>2.679375804375804</v>
+      </c>
+      <c r="M535" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20279,7 +23493,13 @@
       <c r="J536" t="n">
         <v>1955.3</v>
       </c>
-      <c r="K536" t="inlineStr">
+      <c r="K536" t="n">
+        <v>0.3603716725263686</v>
+      </c>
+      <c r="L536" t="n">
+        <v>2.208938375493866</v>
+      </c>
+      <c r="M536" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20316,7 +23536,13 @@
       <c r="J537" t="n">
         <v>2081.5</v>
       </c>
-      <c r="K537" t="inlineStr">
+      <c r="K537" t="n">
+        <v>0.5816753002119143</v>
+      </c>
+      <c r="L537" t="n">
+        <v>2.771459423074226</v>
+      </c>
+      <c r="M537" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20353,7 +23579,13 @@
       <c r="J538" t="n">
         <v>2804.6</v>
       </c>
-      <c r="K538" t="inlineStr">
+      <c r="K538" t="n">
+        <v>0.307042069292523</v>
+      </c>
+      <c r="L538" t="n">
+        <v>1.243856558082849</v>
+      </c>
+      <c r="M538" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20390,7 +23622,13 @@
       <c r="J539" t="n">
         <v>2632.909090909091</v>
       </c>
-      <c r="K539" t="inlineStr">
+      <c r="K539" t="n">
+        <v>0.4103292570785468</v>
+      </c>
+      <c r="L539" t="n">
+        <v>1.662163364244891</v>
+      </c>
+      <c r="M539" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20427,7 +23665,13 @@
       <c r="J540" t="n">
         <v>2459.666666666667</v>
       </c>
-      <c r="K540" t="inlineStr">
+      <c r="K540" t="n">
+        <v>0.3866234685137601</v>
+      </c>
+      <c r="L540" t="n">
+        <v>1.747517252987713</v>
+      </c>
+      <c r="M540" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20464,7 +23708,13 @@
       <c r="J541" t="n">
         <v>2137.181818181818</v>
       </c>
-      <c r="K541" t="inlineStr">
+      <c r="K541" t="n">
+        <v>0.4329914074468794</v>
+      </c>
+      <c r="L541" t="n">
+        <v>2.09639447884417</v>
+      </c>
+      <c r="M541" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20501,7 +23751,13 @@
       <c r="J542" t="n">
         <v>2006.75</v>
       </c>
-      <c r="K542" t="inlineStr">
+      <c r="K542" t="n">
+        <v>0.2872648470922304</v>
+      </c>
+      <c r="L542" t="n">
+        <v>1.697727824762073</v>
+      </c>
+      <c r="M542" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20538,7 +23794,13 @@
       <c r="J543" t="n">
         <v>1997.181818181818</v>
       </c>
-      <c r="K543" t="inlineStr">
+      <c r="K543" t="n">
+        <v>0.47344309234073</v>
+      </c>
+      <c r="L543" t="n">
+        <v>2.460890990871809</v>
+      </c>
+      <c r="M543" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20575,7 +23837,13 @@
       <c r="J544" t="n">
         <v>1993.916666666667</v>
       </c>
-      <c r="K544" t="inlineStr">
+      <c r="K544" t="n">
+        <v>0.5279402916287941</v>
+      </c>
+      <c r="L544" t="n">
+        <v>2.724203989959043</v>
+      </c>
+      <c r="M544" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20612,7 +23880,13 @@
       <c r="J545" t="n">
         <v>1993.272727272727</v>
       </c>
-      <c r="K545" t="inlineStr">
+      <c r="K545" t="n">
+        <v>0.5856028856508932</v>
+      </c>
+      <c r="L545" t="n">
+        <v>3.097708959628823</v>
+      </c>
+      <c r="M545" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20649,7 +23923,13 @@
       <c r="J546" t="n">
         <v>1936.3</v>
       </c>
-      <c r="K546" t="inlineStr">
+      <c r="K546" t="n">
+        <v>0.5199731882091958</v>
+      </c>
+      <c r="L546" t="n">
+        <v>2.964981890322696</v>
+      </c>
+      <c r="M546" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20686,7 +23966,13 @@
       <c r="J547" t="n">
         <v>1935</v>
       </c>
-      <c r="K547" t="inlineStr">
+      <c r="K547" t="n">
+        <v>0.4863273583671333</v>
+      </c>
+      <c r="L547" t="n">
+        <v>2.879163439194421</v>
+      </c>
+      <c r="M547" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20723,7 +24009,13 @@
       <c r="J548" t="n">
         <v>1678.583333333333</v>
       </c>
-      <c r="K548" t="inlineStr">
+      <c r="K548" t="n">
+        <v>0.0885875270475823</v>
+      </c>
+      <c r="L548" t="n">
+        <v>-2.963308012039552</v>
+      </c>
+      <c r="M548" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20760,7 +24052,13 @@
       <c r="J549" t="n">
         <v>2050.7</v>
       </c>
-      <c r="K549" t="inlineStr">
+      <c r="K549" t="n">
+        <v>0.5013143574717456</v>
+      </c>
+      <c r="L549" t="n">
+        <v>2.858329355608592</v>
+      </c>
+      <c r="M549" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20797,7 +24095,13 @@
       <c r="J550" t="n">
         <v>1222.166666666667</v>
       </c>
-      <c r="K550" t="inlineStr">
+      <c r="K550" t="n">
+        <v>0.01391699617049099</v>
+      </c>
+      <c r="L550" t="n">
+        <v>-0.11608580480964</v>
+      </c>
+      <c r="M550" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20834,7 +24138,13 @@
       <c r="J551" t="n">
         <v>1533.6</v>
       </c>
-      <c r="K551" t="inlineStr">
+      <c r="K551" t="n">
+        <v>0.006892910568151819</v>
+      </c>
+      <c r="L551" t="n">
+        <v>-0.08220232265286147</v>
+      </c>
+      <c r="M551" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20871,7 +24181,13 @@
       <c r="J552" t="n">
         <v>1465.333333333333</v>
       </c>
-      <c r="K552" t="inlineStr">
+      <c r="K552" t="n">
+        <v>0.1062414912556288</v>
+      </c>
+      <c r="L552" t="n">
+        <v>-1.514292111351594</v>
+      </c>
+      <c r="M552" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20908,7 +24224,13 @@
       <c r="J553" t="n">
         <v>1295.25</v>
       </c>
-      <c r="K553" t="inlineStr">
+      <c r="K553" t="n">
+        <v>0.4330549956809674</v>
+      </c>
+      <c r="L553" t="n">
+        <v>4.520317383986535</v>
+      </c>
+      <c r="M553" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20945,7 +24267,13 @@
       <c r="J554" t="n">
         <v>1373.571428571429</v>
       </c>
-      <c r="K554" t="inlineStr">
+      <c r="K554" t="n">
+        <v>0.514578771464792</v>
+      </c>
+      <c r="L554" t="n">
+        <v>3.412304165074514</v>
+      </c>
+      <c r="M554" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -20982,7 +24310,13 @@
       <c r="J555" t="n">
         <v>1077.5</v>
       </c>
-      <c r="K555" t="inlineStr">
+      <c r="K555" t="n">
+        <v>-0.01708834508502688</v>
+      </c>
+      <c r="L555" t="n">
+        <v>0.09851745576279249</v>
+      </c>
+      <c r="M555" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21019,7 +24353,13 @@
       <c r="J556" t="n">
         <v>1066.090909090909</v>
       </c>
-      <c r="K556" t="inlineStr">
+      <c r="K556" t="n">
+        <v>-0.01832825260622482</v>
+      </c>
+      <c r="L556" t="n">
+        <v>0.09847933349510639</v>
+      </c>
+      <c r="M556" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21056,7 +24396,13 @@
       <c r="J557" t="n">
         <v>1077</v>
       </c>
-      <c r="K557" t="inlineStr">
+      <c r="K557" t="n">
+        <v>-0.02378048780487798</v>
+      </c>
+      <c r="L557" t="n">
+        <v>0.1401264731244604</v>
+      </c>
+      <c r="M557" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21093,7 +24439,13 @@
       <c r="J558" t="n">
         <v>1072.142857142857</v>
       </c>
-      <c r="K558" t="inlineStr">
+      <c r="K558" t="n">
+        <v>-0.01976430149766756</v>
+      </c>
+      <c r="L558" t="n">
+        <v>0.1186265841438254</v>
+      </c>
+      <c r="M558" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21130,7 +24482,13 @@
       <c r="J559" t="n">
         <v>1126.875</v>
       </c>
-      <c r="K559" t="inlineStr">
+      <c r="K559" t="n">
+        <v>0.05634068211795742</v>
+      </c>
+      <c r="L559" t="n">
+        <v>-0.4001873787057485</v>
+      </c>
+      <c r="M559" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21167,7 +24525,13 @@
       <c r="J560" t="n">
         <v>1138.4</v>
       </c>
-      <c r="K560" t="inlineStr">
+      <c r="K560" t="n">
+        <v>0.04554560229806857</v>
+      </c>
+      <c r="L560" t="n">
+        <v>-0.2776369752545963</v>
+      </c>
+      <c r="M560" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21204,7 +24568,13 @@
       <c r="J561" t="n">
         <v>1093.923076923077</v>
       </c>
-      <c r="K561" t="inlineStr">
+      <c r="K561" t="n">
+        <v>-0.008135149456098252</v>
+      </c>
+      <c r="L561" t="n">
+        <v>0.04212667054038351</v>
+      </c>
+      <c r="M561" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21241,7 +24611,13 @@
       <c r="J562" t="n">
         <v>2442.363636363636</v>
       </c>
-      <c r="K562" t="inlineStr">
+      <c r="K562" t="n">
+        <v>0.3786269027648338</v>
+      </c>
+      <c r="L562" t="n">
+        <v>1.736132873707302</v>
+      </c>
+      <c r="M562" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21278,7 +24654,13 @@
       <c r="J563" t="n">
         <v>1087.857142857143</v>
       </c>
-      <c r="K563" t="inlineStr">
+      <c r="K563" t="n">
+        <v>-0.005348208637644554</v>
+      </c>
+      <c r="L563" t="n">
+        <v>0.0269284225156362</v>
+      </c>
+      <c r="M563" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21315,7 +24697,13 @@
       <c r="J564" t="n">
         <v>1048.9</v>
       </c>
-      <c r="K564" t="inlineStr">
+      <c r="K564" t="n">
+        <v>-0.02625131256562828</v>
+      </c>
+      <c r="L564" t="n">
+        <v>0.1461418550272797</v>
+      </c>
+      <c r="M564" t="inlineStr">
         <is>
           <t>air</t>
         </is>
@@ -21352,7 +24740,13 @@
       <c r="J565" t="n">
         <v>1488.125</v>
       </c>
-      <c r="K565" t="inlineStr">
+      <c r="K565" t="n">
+        <v>0.01361661738400321</v>
+      </c>
+      <c r="L565" t="n">
+        <v>-0.1299379920574096</v>
+      </c>
+      <c r="M565" t="inlineStr">
         <is>
           <t>air</t>
         </is>
